--- a/Content/APBD.xlsx
+++ b/Content/APBD.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="483">
   <si>
     <t>No</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Kabupaten Aceh Utara</t>
   </si>
   <si>
-    <t>Kabupaten Bireueun</t>
-  </si>
-  <si>
     <t>Kabupaten Pidie</t>
   </si>
   <si>
@@ -117,15 +114,9 @@
     <t>4</t>
   </si>
   <si>
-    <t>Kabupaten Tanah karo</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>Kabupaten Labuhan Batu</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -135,9 +126,6 @@
     <t>7</t>
   </si>
   <si>
-    <t>Kabupaten Mandaiing Natal</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -207,15 +195,9 @@
     <t>19</t>
   </si>
   <si>
-    <t>Kabupaten Labuhan Batu Utara</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
-    <t>Kabupaten Labuhan Batu Selatan</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
@@ -246,15 +228,9 @@
     <t>Provinsi Sumatera Barat</t>
   </si>
   <si>
-    <t>Kabupaten Limapuluh Kota</t>
-  </si>
-  <si>
     <t>Kabupaten Agam</t>
   </si>
   <si>
-    <t>Kabupaten Kepualauan Menatawai</t>
-  </si>
-  <si>
     <t>Kabupaten Padang Pariaman</t>
   </si>
   <si>
@@ -291,21 +267,12 @@
     <t>Kabupaten Bengkalis</t>
   </si>
   <si>
-    <t>Kabupaten Indagiri Hilir</t>
-  </si>
-  <si>
-    <t>Kabupaten Indagiri Hulu</t>
-  </si>
-  <si>
     <t>Kabupaten Kampar</t>
   </si>
   <si>
     <t>Kabupaten Kuantan Singingi</t>
   </si>
   <si>
-    <t>Kabupaten Palalawan</t>
-  </si>
-  <si>
     <t>Kabupaten Rokan Hilir</t>
   </si>
   <si>
@@ -321,9 +288,6 @@
     <t>V</t>
   </si>
   <si>
-    <t>Provinsi Kepualauan Riau</t>
-  </si>
-  <si>
     <t>Kabupaten Bintan</t>
   </si>
   <si>
@@ -387,9 +351,6 @@
     <t>Kabupaten Lahat</t>
   </si>
   <si>
-    <t>Kabupaten Musi Banyusin</t>
-  </si>
-  <si>
     <t>Kabupaten Musi Rawas</t>
   </si>
   <si>
@@ -408,21 +369,12 @@
     <t>kabupaten Ogan Ilir</t>
   </si>
   <si>
-    <t>Kabupaten OKU Timur</t>
-  </si>
-  <si>
-    <t>Kabupaten OKU Selatan</t>
-  </si>
-  <si>
     <t>Kabupaten Empat Lawang</t>
   </si>
   <si>
     <t>VIII</t>
   </si>
   <si>
-    <t>Provinsi Bangka Belitung</t>
-  </si>
-  <si>
     <t>Kabupaten Bangka</t>
   </si>
   <si>
@@ -717,15 +669,9 @@
     <t>Kabupaten Wonosobo</t>
   </si>
   <si>
-    <t>Provinsi DI Yogyakarta</t>
-  </si>
-  <si>
     <t>Kabupaten Bantul</t>
   </si>
   <si>
-    <t>Kabupaten Gunung Kidul</t>
-  </si>
-  <si>
     <t>kabupaten Kulon Progo</t>
   </si>
   <si>
@@ -795,9 +741,6 @@
     <t>Kabupaten Pasuruan</t>
   </si>
   <si>
-    <t>Kabupaten Pronorogo</t>
-  </si>
-  <si>
     <t>Kabupaten Probolinggo</t>
   </si>
   <si>
@@ -885,15 +828,9 @@
     <t>Kabupaten Murung Raya</t>
   </si>
   <si>
-    <t>Kabupaten Pulau Pisau</t>
-  </si>
-  <si>
     <t>Kabupaten Gunung Mas</t>
   </si>
   <si>
-    <t>Kabupaten Lemandau</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kabupaten Sukamara </t>
   </si>
   <si>
@@ -924,9 +861,6 @@
     <t>Kabupaten Kotabaru</t>
   </si>
   <si>
-    <t>Kabupatan Tabalong</t>
-  </si>
-  <si>
     <t>Kabupaten Tanah Laut</t>
   </si>
   <si>
@@ -936,9 +870,6 @@
     <t>Kabupaten Balangan</t>
   </si>
   <si>
-    <t>kabupaten Tanah Rumbu</t>
-  </si>
-  <si>
     <t>Provinsi Kalimantan Timur</t>
   </si>
   <si>
@@ -981,9 +912,6 @@
     <t>Kabupaten Minahasa</t>
   </si>
   <si>
-    <t>Kabupaten Sangihe</t>
-  </si>
-  <si>
     <t>Kabupaten Kepulauan Talaud</t>
   </si>
   <si>
@@ -1032,15 +960,9 @@
     <t>Kabupaten Banggai</t>
   </si>
   <si>
-    <t>Kabupaten Banggai Kepualauan</t>
-  </si>
-  <si>
     <t>Kabupaten Buol</t>
   </si>
   <si>
-    <t>Kabupaten Toli-Toli</t>
-  </si>
-  <si>
     <t>Kabupaten Donggala</t>
   </si>
   <si>
@@ -1053,9 +975,6 @@
     <t>Kabupaten Parigi Moutong</t>
   </si>
   <si>
-    <t>Kabupaten Tojo Una Una</t>
-  </si>
-  <si>
     <t>Kabupaten Sigi</t>
   </si>
   <si>
@@ -1089,15 +1008,9 @@
     <t>Kabupaten Maros</t>
   </si>
   <si>
-    <t>Kabupaten Pangkajene Kepulauan</t>
-  </si>
-  <si>
     <t>Kabupaten Pinrang</t>
   </si>
   <si>
-    <t>Kabupaten Kepualauan Selayar</t>
-  </si>
-  <si>
     <t>Kabupaten Sidenreng Rappang</t>
   </si>
   <si>
@@ -1440,9 +1353,6 @@
     <t>Kabupaten Manokwari</t>
   </si>
   <si>
-    <t>Kabupaten Fak Fak</t>
-  </si>
-  <si>
     <t>Kabupaten Sorong Selatan</t>
   </si>
   <si>
@@ -1462,6 +1372,99 @@
   </si>
   <si>
     <t>Kabupaten Tembrauw</t>
+  </si>
+  <si>
+    <t>Kabupaten karo</t>
+  </si>
+  <si>
+    <t>Kabupaten Bireuen</t>
+  </si>
+  <si>
+    <t>Kabupaten Labuhanbatu Utara</t>
+  </si>
+  <si>
+    <t>Kabupaten Labuhanbatu Selatan</t>
+  </si>
+  <si>
+    <t>Kabupaten Labuhanbatu</t>
+  </si>
+  <si>
+    <t>Kabupaten Mandailing Natal</t>
+  </si>
+  <si>
+    <t>Kabupaten Lima Puluh Kota</t>
+  </si>
+  <si>
+    <t>Kabupaten Kepulauan Mentawai</t>
+  </si>
+  <si>
+    <t>Kabupaten Indragiri Hilir</t>
+  </si>
+  <si>
+    <t>Kabupaten Indragiri Hulu</t>
+  </si>
+  <si>
+    <t>Kabupaten Pelalawan</t>
+  </si>
+  <si>
+    <t>Provinsi Kepulauan Riau</t>
+  </si>
+  <si>
+    <t>Kabupaten Musi Banyuasin</t>
+  </si>
+  <si>
+    <t>Kabupaten Ogan Komering Ulu Selatan</t>
+  </si>
+  <si>
+    <t>Kabupaten Ogan Komering Ulu Timur</t>
+  </si>
+  <si>
+    <t>Provinsi Kepulauan Bangka Belitung</t>
+  </si>
+  <si>
+    <t>Provinsi Daerah Istimewa Yogyakarta</t>
+  </si>
+  <si>
+    <t>Kabupaten Gunungkidul</t>
+  </si>
+  <si>
+    <t>Kabupaten Ponorogo</t>
+  </si>
+  <si>
+    <t>Kabupaten Pulang Pisau</t>
+  </si>
+  <si>
+    <t>Kabupaten Lamandau</t>
+  </si>
+  <si>
+    <t>Kabupaten Tabalong</t>
+  </si>
+  <si>
+    <t>kabupaten Tanah Bumbu</t>
+  </si>
+  <si>
+    <t>Kabupaten Kepulauan Sangihe</t>
+  </si>
+  <si>
+    <t>Kabupaten Banggai Kepulauan</t>
+  </si>
+  <si>
+    <t>Kabupaten ToliToli</t>
+  </si>
+  <si>
+    <t>Kabupaten Tojo Una-Una</t>
+  </si>
+  <si>
+    <t>Kabupaten Bone</t>
+  </si>
+  <si>
+    <t>Kabupaten Pangkajene Dan Kepulauan</t>
+  </si>
+  <si>
+    <t>Kabupaten Kepulauan Selayar</t>
+  </si>
+  <si>
+    <t>Kabupaten FakFak</t>
   </si>
 </sst>
 </file>
@@ -1499,7 +1502,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1509,12 +1512,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1626,7 +1623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1685,15 +1682,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1701,9 +1689,6 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2000,10 +1985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D439"/>
+  <dimension ref="A1:D437"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="B431" sqref="B431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2158,7 +2143,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>15</v>
+        <v>453</v>
       </c>
       <c r="C11" s="10">
         <v>56315630000</v>
@@ -2172,7 +2157,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="10">
         <v>59183470000</v>
@@ -2186,7 +2171,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="10">
         <v>25593248952</v>
@@ -2200,7 +2185,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="10">
         <v>30049312724</v>
@@ -2214,7 +2199,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="10">
         <v>28630063892</v>
@@ -2228,7 +2213,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="10">
         <v>24522396386</v>
@@ -2242,7 +2227,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="10">
         <v>32307753203</v>
@@ -2256,7 +2241,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="10">
         <v>81902076127</v>
@@ -2270,7 +2255,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="10">
         <v>26743098641</v>
@@ -2284,7 +2269,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="10">
         <v>24955782531</v>
@@ -2295,10 +2280,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="C21" s="17">
         <v>407340146161</v>
@@ -2309,10 +2294,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="C22" s="10">
         <v>27678089158</v>
@@ -2323,10 +2308,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="C23" s="10">
         <v>23342826439</v>
@@ -2340,7 +2325,7 @@
         <v>8</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="10">
         <v>51590377543</v>
@@ -2351,10 +2336,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>33</v>
+        <v>452</v>
       </c>
       <c r="C25" s="10">
         <v>27152203284</v>
@@ -2365,10 +2350,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>35</v>
+        <v>456</v>
       </c>
       <c r="C26" s="10">
         <v>33296602490</v>
@@ -2379,10 +2364,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C27" s="10">
         <v>134735588627</v>
@@ -2393,10 +2378,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>39</v>
+        <v>457</v>
       </c>
       <c r="C28" s="10">
         <v>28874106970</v>
@@ -2407,10 +2392,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C29" s="10">
         <v>14441212041</v>
@@ -2421,10 +2406,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C30" s="10">
         <v>32908317000</v>
@@ -2435,10 +2420,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C31" s="10">
         <v>42199617986</v>
@@ -2449,10 +2434,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C32" s="10">
         <v>23583435177</v>
@@ -2463,10 +2448,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C33" s="10">
         <v>25347726815</v>
@@ -2477,10 +2462,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C34" s="10">
         <v>21992595740</v>
@@ -2491,10 +2476,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C35" s="10">
         <v>20849631338</v>
@@ -2505,10 +2490,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C36" s="10">
         <v>26669752861</v>
@@ -2519,10 +2504,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C37" s="10">
         <v>26065099530</v>
@@ -2533,10 +2518,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C38" s="10">
         <v>18053906702</v>
@@ -2547,10 +2532,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C39" s="10">
         <v>20797215399</v>
@@ -2561,10 +2546,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>63</v>
+        <v>454</v>
       </c>
       <c r="C40" s="10">
         <v>21459947105</v>
@@ -2575,10 +2560,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>65</v>
+        <v>455</v>
       </c>
       <c r="C41" s="10">
         <v>23614052675</v>
@@ -2589,10 +2574,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C42" s="10">
         <v>18919001769</v>
@@ -2603,10 +2588,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C43" s="10">
         <v>29869055460</v>
@@ -2617,10 +2602,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C44" s="12">
         <v>13577282227</v>
@@ -2631,10 +2616,10 @@
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1">
       <c r="A45" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C45" s="10">
         <v>12264436253</v>
@@ -2645,10 +2630,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="18" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C46" s="20">
         <v>141468167493</v>
@@ -2659,10 +2644,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>76</v>
+        <v>458</v>
       </c>
       <c r="C47" s="10">
         <v>23617843052</v>
@@ -2673,10 +2658,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C48" s="10">
         <v>20805832744</v>
@@ -2690,7 +2675,7 @@
         <v>8</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>78</v>
+        <v>459</v>
       </c>
       <c r="C49" s="10">
         <v>22855255844</v>
@@ -2701,10 +2686,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C50" s="10">
         <v>17694806391</v>
@@ -2715,10 +2700,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C51" s="10">
         <v>20769661604</v>
@@ -2729,10 +2714,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C52" s="10">
         <v>24401492212</v>
@@ -2743,10 +2728,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C53" s="10">
         <v>21456913252</v>
@@ -2757,10 +2742,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C54" s="10">
         <v>20156278544</v>
@@ -2771,10 +2756,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C55" s="10">
         <v>17229680347</v>
@@ -2785,10 +2770,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C56" s="10">
         <v>21199370440</v>
@@ -2799,10 +2784,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C57" s="10">
         <v>20870080812</v>
@@ -2813,10 +2798,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C58" s="10">
         <v>22885302471</v>
@@ -2827,10 +2812,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C59" s="17">
         <v>2712574633739</v>
@@ -2841,10 +2826,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C60" s="12">
         <v>2588410404522</v>
@@ -2855,10 +2840,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>91</v>
+        <v>460</v>
       </c>
       <c r="C61" s="10">
         <v>482671762820</v>
@@ -2872,7 +2857,7 @@
         <v>8</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>92</v>
+        <v>461</v>
       </c>
       <c r="C62" s="10">
         <v>519458351028</v>
@@ -2883,10 +2868,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C63" s="10">
         <v>990238784882</v>
@@ -2897,10 +2882,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C64" s="10">
         <v>426442476930</v>
@@ -2911,10 +2896,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>95</v>
+        <v>462</v>
       </c>
       <c r="C65" s="10">
         <v>545010114181</v>
@@ -2925,10 +2910,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C66" s="10">
         <v>1354559067508</v>
@@ -2939,10 +2924,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C67" s="10">
         <v>507556205210</v>
@@ -2953,10 +2938,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C68" s="10">
         <v>1518628509182</v>
@@ -2967,10 +2952,10 @@
     </row>
     <row r="69" spans="1:4" ht="15.75" thickBot="1">
       <c r="A69" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C69" s="10">
         <v>504486798058</v>
@@ -2981,10 +2966,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="18" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>101</v>
+        <v>463</v>
       </c>
       <c r="C70" s="20">
         <v>915504926851</v>
@@ -2995,10 +2980,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C71" s="10">
         <v>286682650737</v>
@@ -3009,10 +2994,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10">
         <v>775259115774</v>
@@ -3026,7 +3011,7 @@
         <v>8</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C73" s="10">
         <v>281548262323</v>
@@ -3037,10 +3022,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C74" s="10">
         <v>266644467334</v>
@@ -3051,10 +3036,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C75" s="10">
         <v>498250658713</v>
@@ -3065,10 +3050,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C76" s="17">
         <v>505505069853</v>
@@ -3079,10 +3064,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C77" s="10">
         <v>255454724147</v>
@@ -3093,10 +3078,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C78" s="10">
         <v>95084342663</v>
@@ -3110,7 +3095,7 @@
         <v>8</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C79" s="10">
         <v>72259773584</v>
@@ -3121,10 +3106,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C80" s="10">
         <v>93949521190</v>
@@ -3135,10 +3120,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C81" s="10">
         <v>226494582778</v>
@@ -3149,10 +3134,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C82" s="10">
         <v>157052404718</v>
@@ -3163,10 +3148,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C83" s="10">
         <v>391078509206</v>
@@ -3177,10 +3162,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C84" s="10">
         <v>312296494245</v>
@@ -3191,10 +3176,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C85" s="10">
         <v>118659743021</v>
@@ -3205,10 +3190,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C86" s="15">
         <v>134133399940</v>
@@ -3219,10 +3204,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C87" s="15">
         <v>68827278854</v>
@@ -3233,10 +3218,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C88" s="17">
         <v>1737278429482</v>
@@ -3247,10 +3232,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C89" s="10">
         <v>358220187127</v>
@@ -3261,10 +3246,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>123</v>
+        <v>464</v>
       </c>
       <c r="C90" s="10">
         <v>2200747143071</v>
@@ -3278,7 +3263,7 @@
         <v>8</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C91" s="10">
         <v>668158364913</v>
@@ -3289,10 +3274,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C92" s="10">
         <v>782677210488</v>
@@ -3303,10 +3288,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C93" s="10">
         <v>232641992794</v>
@@ -3317,10 +3302,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C94" s="10">
         <v>271876304732</v>
@@ -3331,10 +3316,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C95" s="10">
         <v>384357273706</v>
@@ -3345,10 +3330,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C96" s="10">
         <v>244582630088</v>
@@ -3359,10 +3344,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>130</v>
+        <v>466</v>
       </c>
       <c r="C97" s="10">
         <v>205369053381</v>
@@ -3373,10 +3358,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>131</v>
+        <v>465</v>
       </c>
       <c r="C98" s="10">
         <v>194428621482</v>
@@ -3387,10 +3372,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C99" s="10">
         <v>190658080791</v>
@@ -3401,10 +3386,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>134</v>
+        <v>467</v>
       </c>
       <c r="C100" s="17">
         <v>132247821607</v>
@@ -3415,10 +3400,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C101" s="10">
         <v>99373694411</v>
@@ -3429,10 +3414,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C102" s="10">
         <v>51204644061</v>
@@ -3446,7 +3431,7 @@
         <v>8</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C103" s="10">
         <v>55622147842</v>
@@ -3457,10 +3442,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C104" s="10">
         <v>69208012629</v>
@@ -3471,10 +3456,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C105" s="10">
         <v>69619805064</v>
@@ -3485,10 +3470,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C106" s="10">
         <v>53876484907</v>
@@ -3499,10 +3484,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C107" s="17">
         <v>71873993787</v>
@@ -3513,10 +3498,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C108" s="12">
         <v>21497392039</v>
@@ -3527,10 +3512,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C109" s="10">
         <v>46589508952</v>
@@ -3544,7 +3529,7 @@
         <v>8</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C110" s="10">
         <v>23716908267</v>
@@ -3555,10 +3540,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C111" s="12">
         <v>25001164211</v>
@@ -3569,10 +3554,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C112" s="10">
         <v>24239531293</v>
@@ -3583,10 +3568,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C113" s="10">
         <v>25772705335</v>
@@ -3597,10 +3582,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C114" s="10">
         <v>25926482366</v>
@@ -3611,10 +3596,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C115" s="10">
         <v>20927898663</v>
@@ -3625,10 +3610,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C116" s="10">
         <v>43076512688</v>
@@ -3639,10 +3624,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="4" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C117" s="17">
         <v>262811407391</v>
@@ -3653,10 +3638,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C118" s="10">
         <v>43341673693</v>
@@ -3667,10 +3652,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C119" s="10">
         <v>45798122208</v>
@@ -3684,7 +3669,7 @@
         <v>8</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C120" s="10">
         <v>67550555663</v>
@@ -3695,10 +3680,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C121" s="10">
         <v>46845497823</v>
@@ -3709,10 +3694,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C122" s="10">
         <v>137264488925</v>
@@ -3723,10 +3708,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="C123" s="10">
         <v>49574234581</v>
@@ -3737,10 +3722,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C124" s="10">
         <v>66741995953</v>
@@ -3751,10 +3736,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C125" s="10">
         <v>47412932930</v>
@@ -3765,10 +3750,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C126" s="10">
         <v>35758381351</v>
@@ -3779,10 +3764,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="C127" s="10">
         <v>34769485753</v>
@@ -3793,10 +3778,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="C128" s="10">
         <v>33450237401</v>
@@ -3807,10 +3792,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C129" s="10">
         <v>37309727493</v>
@@ -3821,10 +3806,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="26" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B130" s="27" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C130" s="28">
         <v>9067263629032</v>
@@ -3834,99 +3819,115 @@
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="30"/>
-      <c r="B131" s="31"/>
-      <c r="C131" s="32"/>
-      <c r="D131" s="33"/>
+      <c r="A131" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C131" s="6">
+        <v>1265824835988</v>
+      </c>
+      <c r="D131" s="22">
+        <v>1472453011000</v>
+      </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="30"/>
-      <c r="B132" s="31"/>
-      <c r="C132" s="32"/>
-      <c r="D132" s="33"/>
+      <c r="A132" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C132" s="10">
+        <v>161981743035</v>
+      </c>
+      <c r="D132" s="13">
+        <v>1730063709000</v>
+      </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C133" s="6">
-        <v>1265824835988</v>
-      </c>
-      <c r="D133" s="22">
-        <v>1472453011000</v>
+      <c r="A133" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C133" s="10">
+        <v>350139177821</v>
+      </c>
+      <c r="D133" s="13">
+        <v>1083590174000</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C134" s="10">
-        <v>161981743035</v>
+        <v>192162259652</v>
       </c>
       <c r="D134" s="13">
-        <v>1730063709000</v>
+        <v>1887770112500</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C135" s="10">
-        <v>350139177821</v>
+        <v>75084456425</v>
       </c>
       <c r="D135" s="13">
-        <v>1083590174000</v>
+        <v>1303907527000</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="8" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C136" s="10">
-        <v>192162259652</v>
+        <v>78871575598</v>
       </c>
       <c r="D136" s="13">
-        <v>1887770112500</v>
+        <v>1305617257000</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C137" s="10">
-        <v>75084456425</v>
+        <v>83578831263</v>
       </c>
       <c r="D137" s="13">
-        <v>1303907527000</v>
+        <v>1280797128000</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="C138" s="10">
-        <v>78871575598</v>
+        <v>127596125029</v>
       </c>
       <c r="D138" s="13">
-        <v>1305617257000</v>
+        <v>1563833157000</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3934,13 +3935,13 @@
         <v>36</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C139" s="10">
-        <v>83578831263</v>
+        <v>177314572834</v>
       </c>
       <c r="D139" s="13">
-        <v>1280797128000</v>
+        <v>1134695113000</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3948,13 +3949,13 @@
         <v>38</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="C140" s="10">
-        <v>127596125029</v>
+        <v>265511136004</v>
       </c>
       <c r="D140" s="13">
-        <v>1563833157000</v>
+        <v>1134530200000</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3962,13 +3963,13 @@
         <v>40</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="C141" s="10">
-        <v>177314572834</v>
+        <v>61349370047</v>
       </c>
       <c r="D141" s="13">
-        <v>1134695113000</v>
+        <v>998586961000</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3976,13 +3977,13 @@
         <v>42</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C142" s="10">
-        <v>265511136004</v>
+        <v>88298444810</v>
       </c>
       <c r="D142" s="13">
-        <v>1134530200000</v>
+        <v>995993633000</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3990,13 +3991,13 @@
         <v>44</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="C143" s="10">
-        <v>61349370047</v>
+        <v>79827303305</v>
       </c>
       <c r="D143" s="13">
-        <v>998586961000</v>
+        <v>722162721000</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4004,13 +4005,13 @@
         <v>46</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="C144" s="10">
-        <v>88298444810</v>
+        <v>188616868585</v>
       </c>
       <c r="D144" s="13">
-        <v>995993633000</v>
+        <v>1032567532000</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4018,13 +4019,13 @@
         <v>48</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="C145" s="10">
-        <v>79827303305</v>
+        <v>111119435373</v>
       </c>
       <c r="D145" s="13">
-        <v>722162721000</v>
+        <v>1331012058000</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4032,13 +4033,13 @@
         <v>50</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C146" s="10">
-        <v>188616868585</v>
+        <v>168</v>
+      </c>
+      <c r="C146" s="12">
+        <v>67061757052</v>
       </c>
       <c r="D146" s="13">
-        <v>1032567532000</v>
+        <v>1036263413000</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4046,13 +4047,13 @@
         <v>52</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="C147" s="10">
-        <v>111119435373</v>
+        <v>70051159236</v>
       </c>
       <c r="D147" s="13">
-        <v>1331012058000</v>
+        <v>1225934879000</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4060,125 +4061,125 @@
         <v>54</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C148" s="12">
-        <v>67061757052</v>
+        <v>62110720790</v>
       </c>
       <c r="D148" s="13">
-        <v>1036263413000</v>
+        <v>909359898000</v>
       </c>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C149" s="10">
-        <v>70051159236</v>
-      </c>
-      <c r="D149" s="13">
-        <v>1225934879000</v>
+      <c r="A149" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C149" s="17">
+        <v>369698179604</v>
+      </c>
+      <c r="D149" s="7">
+        <v>617081101000</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="8" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C150" s="12">
-        <v>62110720790</v>
+        <v>173</v>
+      </c>
+      <c r="C150" s="10">
+        <v>68838165759</v>
       </c>
       <c r="D150" s="13">
-        <v>909359898000</v>
+        <v>901740477000</v>
       </c>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C151" s="17">
-        <v>369698179604</v>
-      </c>
-      <c r="D151" s="7">
-        <v>617081101000</v>
+      <c r="A151" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C151" s="10">
+        <v>65689417385</v>
+      </c>
+      <c r="D151" s="13">
+        <v>988536476000</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C152" s="10">
-        <v>68838165759</v>
+        <v>61391774624</v>
       </c>
       <c r="D152" s="13">
-        <v>901740477000</v>
+        <v>868652743000</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="C153" s="10">
-        <v>65689417385</v>
+        <v>143664682871</v>
       </c>
       <c r="D153" s="13">
-        <v>988536476000</v>
+        <v>1115364627000</v>
       </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C154" s="10">
-        <v>61391774624</v>
-      </c>
-      <c r="D154" s="13">
-        <v>868652743000</v>
+      <c r="A154" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B154" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C154" s="15">
+        <v>74776621096</v>
+      </c>
+      <c r="D154" s="16">
+        <v>461398284000</v>
       </c>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C155" s="10">
-        <v>143664682871</v>
-      </c>
-      <c r="D155" s="13">
-        <v>1115364627000</v>
+      <c r="A155" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B155" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C155" s="15">
+        <v>167651719284</v>
+      </c>
+      <c r="D155" s="16">
+        <v>829387856000</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B156" s="24" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="C156" s="15">
-        <v>74776621096</v>
+        <v>41532493326</v>
       </c>
       <c r="D156" s="16">
-        <v>461398284000</v>
+        <v>513769007000</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4186,125 +4187,125 @@
         <v>36</v>
       </c>
       <c r="B157" s="24" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="C157" s="15">
-        <v>167651719284</v>
+        <v>94095234673</v>
       </c>
       <c r="D157" s="16">
-        <v>829387856000</v>
+        <v>536177454000</v>
       </c>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B158" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="C158" s="15">
-        <v>41532493326</v>
-      </c>
-      <c r="D158" s="16">
-        <v>513769007000</v>
+      <c r="A158" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C158" s="17">
+        <v>632811637721</v>
+      </c>
+      <c r="D158" s="7">
+        <v>1670859369000</v>
       </c>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B159" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="C159" s="15">
-        <v>94095234673</v>
-      </c>
-      <c r="D159" s="16">
-        <v>536177454000</v>
+      <c r="A159" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C159" s="10">
+        <v>32676261729</v>
+      </c>
+      <c r="D159" s="13">
+        <v>763426566000</v>
       </c>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C160" s="17">
-        <v>632811637721</v>
-      </c>
-      <c r="D160" s="7">
-        <v>1670859369000</v>
+      <c r="A160" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C160" s="10">
+        <v>64960697104</v>
+      </c>
+      <c r="D160" s="13">
+        <v>1127939938000</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C161" s="10">
-        <v>32676261729</v>
+        <v>29786471957</v>
       </c>
       <c r="D161" s="13">
-        <v>763426566000</v>
+        <v>641663630000</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C162" s="10">
-        <v>64960697104</v>
+        <v>70140312806</v>
       </c>
       <c r="D162" s="13">
-        <v>1127939938000</v>
+        <v>753830036000</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="8" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C163" s="10">
-        <v>29786471957</v>
+        <v>32341357713</v>
       </c>
       <c r="D163" s="13">
-        <v>641663630000</v>
+        <v>871685981000</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="C164" s="10">
-        <v>70140312806</v>
+        <v>40086019754</v>
       </c>
       <c r="D164" s="13">
-        <v>753830036000</v>
+        <v>1098999510000</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="C165" s="10">
-        <v>32341357713</v>
+        <v>80287804645</v>
       </c>
       <c r="D165" s="13">
-        <v>871685981000</v>
+        <v>1197315060000</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4312,13 +4313,13 @@
         <v>36</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C166" s="10">
-        <v>40086019754</v>
+        <v>40397229675</v>
       </c>
       <c r="D166" s="13">
-        <v>1098999510000</v>
+        <v>737911647000</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4326,13 +4327,13 @@
         <v>38</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C167" s="10">
-        <v>80287804645</v>
+        <v>47219983255</v>
       </c>
       <c r="D167" s="13">
-        <v>1197315060000</v>
+        <v>906666365000</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4340,13 +4341,13 @@
         <v>40</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="C168" s="10">
-        <v>40397229675</v>
+        <v>40197120828</v>
       </c>
       <c r="D168" s="13">
-        <v>737911647000</v>
+        <v>814380324000</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4354,13 +4355,13 @@
         <v>42</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="C169" s="10">
-        <v>47219983255</v>
+        <v>32159413330</v>
       </c>
       <c r="D169" s="13">
-        <v>906666365000</v>
+        <v>810216582000</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4368,13 +4369,13 @@
         <v>44</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="C170" s="10">
-        <v>40197120828</v>
+        <v>38693490032</v>
       </c>
       <c r="D170" s="13">
-        <v>814380324000</v>
+        <v>1021871180000</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4382,13 +4383,13 @@
         <v>46</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="C171" s="10">
-        <v>32159413330</v>
+        <v>63872271824</v>
       </c>
       <c r="D171" s="13">
-        <v>810216582000</v>
+        <v>788134078000</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4396,13 +4397,13 @@
         <v>48</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C172" s="10">
-        <v>38693490032</v>
+        <v>42610173638</v>
       </c>
       <c r="D172" s="13">
-        <v>1021871180000</v>
+        <v>1066318427000</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4410,13 +4411,13 @@
         <v>50</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C173" s="10">
-        <v>63872271824</v>
+        <v>161642727753</v>
       </c>
       <c r="D173" s="13">
-        <v>788134078000</v>
+        <v>719406935000</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4424,13 +4425,13 @@
         <v>52</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C174" s="10">
-        <v>42610173638</v>
+        <v>198</v>
+      </c>
+      <c r="C174" s="12">
+        <v>39716095635</v>
       </c>
       <c r="D174" s="13">
-        <v>1066318427000</v>
+        <v>899528369000</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4438,13 +4439,13 @@
         <v>54</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C175" s="10">
-        <v>161642727753</v>
+        <v>42963328020</v>
       </c>
       <c r="D175" s="13">
-        <v>719406935000</v>
+        <v>960479326000</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4452,13 +4453,13 @@
         <v>56</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C176" s="12">
-        <v>39716095635</v>
+        <v>200</v>
+      </c>
+      <c r="C176" s="10">
+        <v>28080926623</v>
       </c>
       <c r="D176" s="13">
-        <v>899528369000</v>
+        <v>768500117000</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4466,331 +4467,335 @@
         <v>58</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="C177" s="10">
-        <v>42963328020</v>
+        <v>34197482549</v>
       </c>
       <c r="D177" s="13">
-        <v>960479326000</v>
+        <v>931426998000</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C178" s="10">
-        <v>28080926623</v>
+        <v>31716548495</v>
       </c>
       <c r="D178" s="13">
-        <v>768500117000</v>
+        <v>719185020000</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C179" s="10">
-        <v>34197482549</v>
+        <v>30357249651</v>
       </c>
       <c r="D179" s="13">
-        <v>931426998000</v>
+        <v>793904679000</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="C180" s="10">
-        <v>31716548495</v>
+        <v>35530383656</v>
       </c>
       <c r="D180" s="13">
-        <v>719185020000</v>
+        <v>640273360000</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C181" s="10">
-        <v>30357249651</v>
+        <v>36283926327</v>
       </c>
       <c r="D181" s="13">
-        <v>793904679000</v>
+        <v>778604920000</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="C182" s="10">
-        <v>35530383656</v>
+        <v>31235665898</v>
       </c>
       <c r="D182" s="13">
-        <v>640273360000</v>
+        <v>869155545000</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="8" t="s">
-        <v>70</v>
+        <v>207</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C183" s="10">
-        <v>36283926327</v>
+        <v>31348454988</v>
       </c>
       <c r="D183" s="13">
-        <v>778604920000</v>
+        <v>763462900000</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="8" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C184" s="10">
-        <v>31235665898</v>
+        <v>36835137904</v>
       </c>
       <c r="D184" s="13">
-        <v>869155545000</v>
+        <v>957576304000</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="8" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C185" s="10">
-        <v>31348454988</v>
+        <v>43958476228</v>
       </c>
       <c r="D185" s="13">
-        <v>763462900000</v>
+        <v>651171674000</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="8" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C186" s="10">
-        <v>36835137904</v>
+        <v>34215778630</v>
       </c>
       <c r="D186" s="13">
-        <v>957576304000</v>
+        <v>917476557000</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="8" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C187" s="10">
-        <v>43958476228</v>
-      </c>
-      <c r="D187" s="13">
-        <v>651171674000</v>
+        <v>31073744628</v>
+      </c>
+      <c r="D187" s="11">
+        <v>665548034000</v>
       </c>
     </row>
     <row r="188" spans="1:4">
-      <c r="A188" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B188" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="C188" s="10">
-        <v>34215778630</v>
-      </c>
-      <c r="D188" s="13">
-        <v>917476557000</v>
+      <c r="A188" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C188" s="17">
+        <v>88599857785</v>
+      </c>
+      <c r="D188" s="7">
+        <v>828334768000</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="8" t="s">
-        <v>231</v>
+        <v>26</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C189" s="10">
-        <v>31073744628</v>
-      </c>
-      <c r="D189" s="11">
-        <v>665548034000</v>
+        <v>33879124710</v>
+      </c>
+      <c r="D189" s="13">
+        <v>854810634000</v>
       </c>
     </row>
     <row r="190" spans="1:4">
-      <c r="A190" s="34"/>
-      <c r="B190" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C190" s="17">
-        <v>88599857785</v>
-      </c>
-      <c r="D190" s="7">
-        <v>828334768000</v>
+      <c r="A190" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="C190" s="10">
+        <v>36046877801</v>
+      </c>
+      <c r="D190" s="11">
+        <v>779069238000</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="C191" s="10">
-        <v>33879124710</v>
+        <v>31927101901</v>
       </c>
       <c r="D191" s="13">
-        <v>854810634000</v>
+        <v>594978790000</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C192" s="10">
-        <v>36046877801</v>
-      </c>
-      <c r="D192" s="11">
-        <v>779069238000</v>
+        <v>55903496619</v>
+      </c>
+      <c r="D192" s="13">
+        <v>891589912000</v>
       </c>
     </row>
     <row r="193" spans="1:4">
-      <c r="A193" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B193" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C193" s="10">
-        <v>31927101901</v>
-      </c>
-      <c r="D193" s="13">
-        <v>594978790000</v>
+      <c r="A193" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C193" s="17">
+        <v>1238303174355</v>
+      </c>
+      <c r="D193" s="7">
+        <v>1632648287000</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="C194" s="10">
-        <v>55903496619</v>
-      </c>
-      <c r="D194" s="13">
-        <v>891589912000</v>
+        <v>129628738022</v>
+      </c>
+      <c r="D194" s="11">
+        <v>778024112000</v>
       </c>
     </row>
     <row r="195" spans="1:4">
-      <c r="A195" s="34"/>
-      <c r="B195" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C195" s="17">
-        <v>1238303174355</v>
-      </c>
-      <c r="D195" s="7">
-        <v>1632648287000</v>
+      <c r="A195" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C195" s="12">
+        <v>72147535854</v>
+      </c>
+      <c r="D195" s="13">
+        <v>1154495171000</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="C196" s="10">
-        <v>129628738022</v>
-      </c>
-      <c r="D196" s="11">
-        <v>778024112000</v>
+        <v>61464506299</v>
+      </c>
+      <c r="D196" s="13">
+        <v>944297542000</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="C197" s="12">
-        <v>72147535854</v>
+        <v>224</v>
+      </c>
+      <c r="C197" s="10">
+        <v>489440861218</v>
       </c>
       <c r="D197" s="13">
-        <v>1154495171000</v>
+        <v>876021914000</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="8" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="C198" s="10">
-        <v>61464506299</v>
+        <v>57396678603</v>
       </c>
       <c r="D198" s="13">
-        <v>944297542000</v>
+        <v>752776704000</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="C199" s="10">
-        <v>489440861218</v>
+        <v>152277676569</v>
       </c>
       <c r="D199" s="13">
-        <v>876021914000</v>
+        <v>804903511000</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="C200" s="10">
-        <v>57396678603</v>
+        <v>90775732773</v>
       </c>
       <c r="D200" s="13">
-        <v>752776704000</v>
+        <v>1417603982000</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4798,13 +4803,13 @@
         <v>36</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="C201" s="10">
-        <v>152277676569</v>
+        <v>82952220159</v>
       </c>
       <c r="D201" s="13">
-        <v>804903511000</v>
+        <v>920097938000</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4812,13 +4817,13 @@
         <v>38</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C202" s="10">
-        <v>90775732773</v>
+        <v>87316922070</v>
       </c>
       <c r="D202" s="13">
-        <v>1417603982000</v>
+        <v>1056481076000</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4826,13 +4831,13 @@
         <v>40</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="C203" s="10">
-        <v>82952220159</v>
+        <v>90914317819</v>
       </c>
       <c r="D203" s="13">
-        <v>920097938000</v>
+        <v>958344988000</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4840,13 +4845,13 @@
         <v>42</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="C204" s="10">
-        <v>87316922070</v>
+        <v>52120116658</v>
       </c>
       <c r="D204" s="13">
-        <v>1056481076000</v>
+        <v>828524528000</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4854,13 +4859,13 @@
         <v>44</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="C205" s="10">
-        <v>90914317819</v>
+        <v>54565403722</v>
       </c>
       <c r="D205" s="13">
-        <v>958344988000</v>
+        <v>734152390000</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4868,13 +4873,13 @@
         <v>46</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="C206" s="10">
-        <v>52120116658</v>
+        <v>53180618513</v>
       </c>
       <c r="D206" s="13">
-        <v>828524528000</v>
+        <v>761637391000</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4882,13 +4887,13 @@
         <v>48</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="C207" s="10">
-        <v>54565403722</v>
+        <v>104771406339</v>
       </c>
       <c r="D207" s="13">
-        <v>734152390000</v>
+        <v>1439234034000</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4896,13 +4901,13 @@
         <v>50</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C208" s="10">
-        <v>53180618513</v>
+        <v>84027288650</v>
       </c>
       <c r="D208" s="13">
-        <v>761637391000</v>
+        <v>832266682000</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4910,13 +4915,13 @@
         <v>52</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="C209" s="10">
-        <v>104771406339</v>
+        <v>68710500652</v>
       </c>
       <c r="D209" s="13">
-        <v>1439234034000</v>
+        <v>928265611000</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4924,13 +4929,13 @@
         <v>54</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="C210" s="10">
-        <v>84027288650</v>
+        <v>60777886164</v>
       </c>
       <c r="D210" s="13">
-        <v>832266682000</v>
+        <v>896052870000</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4938,13 +4943,13 @@
         <v>56</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="C211" s="10">
-        <v>68710500652</v>
+        <v>54073679577</v>
       </c>
       <c r="D211" s="13">
-        <v>928265611000</v>
+        <v>647293403000</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4952,263 +4957,265 @@
         <v>58</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="C212" s="10">
-        <v>60777886164</v>
+        <v>93578952235</v>
       </c>
       <c r="D212" s="13">
-        <v>896052870000</v>
+        <v>702610217000</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="C213" s="10">
-        <v>54073679577</v>
+        <v>128902383306</v>
       </c>
       <c r="D213" s="13">
-        <v>647293403000</v>
+        <v>992689474000</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>257</v>
+        <v>470</v>
       </c>
       <c r="C214" s="10">
-        <v>93578952235</v>
+        <v>60056132052</v>
       </c>
       <c r="D214" s="13">
-        <v>702610217000</v>
+        <v>890922311000</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="C215" s="10">
-        <v>128902383306</v>
+        <v>79296825788</v>
       </c>
       <c r="D215" s="13">
-        <v>992689474000</v>
+        <v>848994313000</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="C216" s="10">
-        <v>60056132052</v>
+        <v>80196892846</v>
       </c>
       <c r="D216" s="13">
-        <v>890922311000</v>
+        <v>683242704000</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="C217" s="10">
-        <v>79296825788</v>
+        <v>149499976761</v>
       </c>
       <c r="D217" s="13">
-        <v>848994313000</v>
+        <v>1104580340000</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="8" t="s">
-        <v>70</v>
+        <v>207</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="C218" s="10">
-        <v>80196892846</v>
+        <v>61078726284</v>
       </c>
       <c r="D218" s="13">
-        <v>683242704000</v>
+        <v>692549026000</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="8" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="C219" s="10">
-        <v>149499976761</v>
+        <v>166157965709</v>
       </c>
       <c r="D219" s="13">
-        <v>1104580340000</v>
+        <v>917539019000</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="8" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C220" s="10">
-        <v>61078726284</v>
+        <v>55204980618</v>
       </c>
       <c r="D220" s="13">
-        <v>692549026000</v>
+        <v>737814627000</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="8" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="C221" s="10">
-        <v>166157965709</v>
+        <v>110010912384</v>
       </c>
       <c r="D221" s="13">
-        <v>917539019000</v>
+        <v>849399312000</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="8" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="C222" s="10">
-        <v>55204980618</v>
+        <v>67301434274</v>
       </c>
       <c r="D222" s="13">
-        <v>737814627000</v>
+        <v>996300694000</v>
       </c>
     </row>
     <row r="223" spans="1:4">
-      <c r="A223" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B223" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C223" s="10">
-        <v>110010912384</v>
-      </c>
-      <c r="D223" s="13">
-        <v>849399312000</v>
+      <c r="A223" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C223" s="17">
+        <v>139747128291</v>
+      </c>
+      <c r="D223" s="7">
+        <v>1144712840000</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="8" t="s">
-        <v>231</v>
+        <v>26</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="C224" s="10">
-        <v>67301434274</v>
-      </c>
-      <c r="D224" s="13">
-        <v>996300694000</v>
+        <v>250</v>
+      </c>
+      <c r="C224" s="12">
+        <v>28938205242</v>
+      </c>
+      <c r="D224" s="11">
+        <v>457245355000</v>
       </c>
     </row>
     <row r="225" spans="1:4">
-      <c r="A225" s="34"/>
-      <c r="B225" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C225" s="17">
-        <v>139747128291</v>
-      </c>
-      <c r="D225" s="7">
-        <v>1144712840000</v>
+      <c r="A225" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B225" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C225" s="10">
+        <v>44139205459</v>
+      </c>
+      <c r="D225" s="13">
+        <v>534166873000</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="C226" s="12">
-        <v>28938205242</v>
+        <v>44139205459</v>
       </c>
       <c r="D226" s="11">
-        <v>457245355000</v>
+        <v>534166873000</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="C227" s="10">
-        <v>44139205459</v>
+        <v>86024146641</v>
       </c>
       <c r="D227" s="13">
-        <v>534166873000</v>
+        <v>898337135000</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="8" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="C228" s="12">
-        <v>44139205459</v>
-      </c>
-      <c r="D228" s="11">
-        <v>534166873000</v>
+        <v>25146714706</v>
+      </c>
+      <c r="D228" s="13">
+        <v>463983726000</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="C229" s="10">
-        <v>86024146641</v>
-      </c>
-      <c r="D229" s="13">
-        <v>898337135000</v>
+        <v>255</v>
+      </c>
+      <c r="C229" s="12">
+        <v>37270657089</v>
+      </c>
+      <c r="D229" s="11">
+        <v>702231663000</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="C230" s="12">
-        <v>25146714706</v>
+        <v>53269705743</v>
       </c>
       <c r="D230" s="13">
-        <v>463983726000</v>
+        <v>674049502000</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5216,13 +5223,13 @@
         <v>36</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="C231" s="12">
-        <v>37270657089</v>
-      </c>
-      <c r="D231" s="11">
-        <v>702231663000</v>
+        <v>257</v>
+      </c>
+      <c r="C231" s="10">
+        <v>49068362977</v>
+      </c>
+      <c r="D231" s="13">
+        <v>738622011000</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5230,13 +5237,13 @@
         <v>38</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="C232" s="12">
-        <v>53269705743</v>
-      </c>
-      <c r="D232" s="13">
-        <v>674049502000</v>
+        <v>32703327633</v>
+      </c>
+      <c r="D232" s="11">
+        <v>386021907000</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5244,13 +5251,13 @@
         <v>40</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="C233" s="10">
-        <v>49068362977</v>
-      </c>
-      <c r="D233" s="13">
-        <v>738622011000</v>
+        <v>42594441407</v>
+      </c>
+      <c r="D233" s="11">
+        <v>468104101000</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5258,13 +5265,13 @@
         <v>42</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="C234" s="12">
-        <v>32703327633</v>
+        <v>29966998426</v>
       </c>
       <c r="D234" s="11">
-        <v>386021907000</v>
+        <v>343376301000</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5272,123 +5279,125 @@
         <v>44</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="C235" s="10">
-        <v>42594441407</v>
+        <v>38591966865</v>
       </c>
       <c r="D235" s="11">
-        <v>468104101000</v>
+        <v>627894391000</v>
       </c>
     </row>
     <row r="236" spans="1:4">
-      <c r="A236" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B236" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="C236" s="12">
-        <v>29966998426</v>
-      </c>
-      <c r="D236" s="11">
-        <v>343376301000</v>
+      <c r="A236" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C236" s="17">
+        <v>270264605103</v>
+      </c>
+      <c r="D236" s="22">
+        <v>1062516940000</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="8" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C237" s="10">
-        <v>38591966865</v>
-      </c>
-      <c r="D237" s="11">
-        <v>627894391000</v>
+        <v>80942017072</v>
+      </c>
+      <c r="D237" s="13">
+        <v>504292137000</v>
       </c>
     </row>
     <row r="238" spans="1:4">
-      <c r="A238" s="34"/>
-      <c r="B238" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="C238" s="17">
-        <v>270264605103</v>
-      </c>
-      <c r="D238" s="22">
-        <v>1062516940000</v>
+      <c r="A238" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C238" s="10">
+        <v>128170509389</v>
+      </c>
+      <c r="D238" s="11">
+        <v>475180280000</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="C239" s="10">
-        <v>80942017072</v>
+        <v>116148766554</v>
       </c>
       <c r="D239" s="13">
-        <v>504292137000</v>
+        <v>744617150000</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="C240" s="10">
-        <v>128170509389</v>
+        <v>266</v>
+      </c>
+      <c r="C240" s="12">
+        <v>60858723483</v>
       </c>
       <c r="D240" s="11">
-        <v>475180280000</v>
+        <v>566405844000</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="8" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="C241" s="10">
-        <v>116148766554</v>
+        <v>77901220013</v>
       </c>
       <c r="D241" s="13">
-        <v>744617150000</v>
+        <v>708665917000</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="C242" s="12">
-        <v>60858723483</v>
-      </c>
-      <c r="D242" s="11">
-        <v>566405844000</v>
+        <v>268</v>
+      </c>
+      <c r="C242" s="10">
+        <v>85537938925</v>
+      </c>
+      <c r="D242" s="13">
+        <v>424326347000</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C243" s="10">
-        <v>77901220013</v>
+        <v>172563867713</v>
       </c>
       <c r="D243" s="13">
-        <v>708665917000</v>
+        <v>545932782000</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5396,13 +5405,13 @@
         <v>38</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>287</v>
+        <v>471</v>
       </c>
       <c r="C244" s="10">
-        <v>85537938925</v>
+        <v>56801242299</v>
       </c>
       <c r="D244" s="13">
-        <v>424326347000</v>
+        <v>453776884000</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5410,13 +5419,13 @@
         <v>40</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="C245" s="10">
-        <v>172563867713</v>
-      </c>
-      <c r="D245" s="13">
-        <v>545932782000</v>
+        <v>58403753418</v>
+      </c>
+      <c r="D245" s="11">
+        <v>476671178000</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5424,13 +5433,13 @@
         <v>42</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>289</v>
+        <v>472</v>
       </c>
       <c r="C246" s="10">
-        <v>56801242299</v>
+        <v>66756122630</v>
       </c>
       <c r="D246" s="13">
-        <v>453776884000</v>
+        <v>383325898000</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5438,13 +5447,13 @@
         <v>44</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="C247" s="10">
-        <v>58403753418</v>
+        <v>52703053475</v>
       </c>
       <c r="D247" s="11">
-        <v>476671178000</v>
+        <v>381154120000</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5452,13 +5461,13 @@
         <v>46</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="C248" s="10">
-        <v>66756122630</v>
-      </c>
-      <c r="D248" s="13">
-        <v>383325898000</v>
+        <v>83454018198</v>
+      </c>
+      <c r="D248" s="11">
+        <v>579301377000</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5466,123 +5475,125 @@
         <v>48</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="C249" s="10">
-        <v>52703053475</v>
-      </c>
-      <c r="D249" s="11">
-        <v>381154120000</v>
+        <v>92257782355</v>
+      </c>
+      <c r="D249" s="13">
+        <v>513570135000</v>
       </c>
     </row>
     <row r="250" spans="1:4">
-      <c r="A250" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B250" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="C250" s="10">
-        <v>83454018198</v>
-      </c>
-      <c r="D250" s="11">
-        <v>579301377000</v>
+      <c r="A250" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C250" s="17">
+        <v>734461107175</v>
+      </c>
+      <c r="D250" s="7">
+        <v>683511441000</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="8" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="C251" s="10">
-        <v>92257782355</v>
-      </c>
-      <c r="D251" s="13">
-        <v>513570135000</v>
+        <v>275</v>
+      </c>
+      <c r="C251" s="12">
+        <v>224902076817</v>
+      </c>
+      <c r="D251" s="11">
+        <v>590526945000</v>
       </c>
     </row>
     <row r="252" spans="1:4">
-      <c r="A252" s="34"/>
-      <c r="B252" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="C252" s="17">
-        <v>734461107175</v>
-      </c>
-      <c r="D252" s="7">
-        <v>683511441000</v>
+      <c r="A252" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B252" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C252" s="12">
+        <v>146287191240</v>
+      </c>
+      <c r="D252" s="13">
+        <v>490244084000</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="C253" s="12">
-        <v>224902076817</v>
-      </c>
-      <c r="D253" s="11">
-        <v>590526945000</v>
+        <v>144596056965</v>
+      </c>
+      <c r="D253" s="13">
+        <v>452522473000</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="C254" s="12">
-        <v>146287191240</v>
-      </c>
-      <c r="D254" s="13">
-        <v>490244084000</v>
+        <v>278</v>
+      </c>
+      <c r="C254" s="10">
+        <v>122284337131</v>
+      </c>
+      <c r="D254" s="11">
+        <v>453312619000</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="8" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="C255" s="12">
-        <v>144596056965</v>
+        <v>279</v>
+      </c>
+      <c r="C255" s="10">
+        <v>129990122836</v>
       </c>
       <c r="D255" s="13">
-        <v>452522473000</v>
+        <v>415479351000</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="C256" s="10">
-        <v>122284337131</v>
+        <v>280</v>
+      </c>
+      <c r="C256" s="12">
+        <v>296558516052</v>
       </c>
       <c r="D256" s="11">
-        <v>453312619000</v>
+        <v>564592305000</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>300</v>
+        <v>473</v>
       </c>
       <c r="C257" s="10">
-        <v>129990122836</v>
+        <v>345475965796</v>
       </c>
       <c r="D257" s="13">
-        <v>415479351000</v>
+        <v>405082029000</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5590,13 +5601,13 @@
         <v>36</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="C258" s="12">
-        <v>296558516052</v>
-      </c>
-      <c r="D258" s="11">
-        <v>564592305000</v>
+        <v>300237113098</v>
+      </c>
+      <c r="D258" s="13">
+        <v>439195379000</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5604,13 +5615,13 @@
         <v>38</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="C259" s="10">
-        <v>345475965796</v>
+        <v>230601981396</v>
       </c>
       <c r="D259" s="13">
-        <v>405082029000</v>
+        <v>383383301000</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5618,13 +5629,13 @@
         <v>40</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="C260" s="12">
-        <v>300237113098</v>
+        <v>283</v>
+      </c>
+      <c r="C260" s="10">
+        <v>327698320023</v>
       </c>
       <c r="D260" s="13">
-        <v>439195379000</v>
+        <v>287613144000</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5632,123 +5643,125 @@
         <v>42</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>304</v>
+        <v>474</v>
       </c>
       <c r="C261" s="10">
-        <v>230601981396</v>
-      </c>
-      <c r="D261" s="13">
-        <v>383383301000</v>
+        <v>321657464930</v>
+      </c>
+      <c r="D261" s="11">
+        <v>398801458000</v>
       </c>
     </row>
     <row r="262" spans="1:4">
-      <c r="A262" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B262" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="C262" s="10">
-        <v>327698320023</v>
-      </c>
-      <c r="D262" s="13">
-        <v>287613144000</v>
+      <c r="A262" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C262" s="6">
+        <v>4473760306925</v>
+      </c>
+      <c r="D262" s="7">
+        <v>55539336500</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="8" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C263" s="10">
-        <v>321657464930</v>
-      </c>
-      <c r="D263" s="11">
-        <v>398801458000</v>
+        <v>285</v>
+      </c>
+      <c r="C263" s="12">
+        <v>883465592318</v>
+      </c>
+      <c r="D263" s="13">
+        <v>471929720000</v>
       </c>
     </row>
     <row r="264" spans="1:4">
-      <c r="A264" s="34"/>
-      <c r="B264" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="C264" s="6">
-        <v>4473760306925</v>
-      </c>
-      <c r="D264" s="7">
-        <v>55539336500</v>
+      <c r="A264" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B264" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C264" s="10">
+        <v>837649153477</v>
+      </c>
+      <c r="D264" s="13">
+        <v>326787105000</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="C265" s="12">
-        <v>883465592318</v>
+        <v>287</v>
+      </c>
+      <c r="C265" s="10">
+        <v>3904153588553</v>
       </c>
       <c r="D265" s="13">
-        <v>471929720000</v>
+        <v>150245858000</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="C266" s="10">
-        <v>837649153477</v>
+        <v>829639860681</v>
       </c>
       <c r="D266" s="13">
-        <v>326787105000</v>
+        <v>599731060000</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="8" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="C267" s="10">
-        <v>3904153588553</v>
+        <v>1767000015408</v>
       </c>
       <c r="D267" s="13">
-        <v>150245858000</v>
+        <v>506528289000</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="C268" s="10">
-        <v>829639860681</v>
+        <v>663300159523</v>
       </c>
       <c r="D268" s="13">
-        <v>599731060000</v>
+        <v>620970044000</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="C269" s="10">
-        <v>1767000015408</v>
+        <v>758612886981</v>
       </c>
       <c r="D269" s="13">
-        <v>506528289000</v>
+        <v>307765777000</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5756,13 +5769,13 @@
         <v>36</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="C270" s="10">
-        <v>663300159523</v>
+        <v>888158465486</v>
       </c>
       <c r="D270" s="13">
-        <v>620970044000</v>
+        <v>301950343000</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5770,13 +5783,13 @@
         <v>38</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="C271" s="10">
-        <v>758612886981</v>
+        <v>739964786009</v>
       </c>
       <c r="D271" s="13">
-        <v>307765777000</v>
+        <v>194579185000</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5784,123 +5797,125 @@
         <v>40</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C272" s="10">
-        <v>888158465486</v>
-      </c>
-      <c r="D272" s="13">
-        <v>301950343000</v>
+        <v>294</v>
+      </c>
+      <c r="C272" s="12">
+        <v>612884393908</v>
+      </c>
+      <c r="D272" s="11">
+        <v>133386322000</v>
       </c>
     </row>
     <row r="273" spans="1:4">
-      <c r="A273" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B273" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="C273" s="10">
-        <v>739964786009</v>
-      </c>
-      <c r="D273" s="13">
-        <v>194579185000</v>
+      <c r="A273" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C273" s="6">
+        <v>86900520583</v>
+      </c>
+      <c r="D273" s="22">
+        <v>885684277000</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="8" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="C274" s="12">
-        <v>612884393908</v>
-      </c>
-      <c r="D274" s="11">
-        <v>133386322000</v>
+        <v>296</v>
+      </c>
+      <c r="C274" s="10">
+        <v>29037597384</v>
+      </c>
+      <c r="D274" s="13">
+        <v>437804387000</v>
       </c>
     </row>
     <row r="275" spans="1:4">
-      <c r="A275" s="34"/>
-      <c r="B275" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="C275" s="6">
-        <v>86900520583</v>
-      </c>
-      <c r="D275" s="22">
-        <v>885684277000</v>
+      <c r="A275" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B275" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C275" s="10">
+        <v>35466803003</v>
+      </c>
+      <c r="D275" s="13">
+        <v>550100008000</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="C276" s="10">
-        <v>29037597384</v>
+        <v>475</v>
+      </c>
+      <c r="C276" s="12">
+        <v>19783158128</v>
       </c>
       <c r="D276" s="13">
-        <v>437804387000</v>
+        <v>433201221000</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="C277" s="10">
-        <v>35466803003</v>
-      </c>
-      <c r="D277" s="13">
-        <v>550100008000</v>
+        <v>298</v>
+      </c>
+      <c r="C277" s="12">
+        <v>23560520579</v>
+      </c>
+      <c r="D277" s="11">
+        <v>393729032000</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="8" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C278" s="12">
-        <v>19783158128</v>
+        <v>299</v>
+      </c>
+      <c r="C278" s="10">
+        <v>22884048275</v>
       </c>
       <c r="D278" s="13">
-        <v>433201221000</v>
+        <v>435848663000</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="C279" s="12">
-        <v>23560520579</v>
+        <v>300</v>
+      </c>
+      <c r="C279" s="10">
+        <v>41495361521</v>
       </c>
       <c r="D279" s="11">
-        <v>393729032000</v>
+        <v>395558587000</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="C280" s="10">
-        <v>22884048275</v>
+        <v>301</v>
+      </c>
+      <c r="C280" s="12">
+        <v>23219416666</v>
       </c>
       <c r="D280" s="13">
-        <v>435848663000</v>
+        <v>288250888000</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5908,13 +5923,13 @@
         <v>36</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C281" s="10">
-        <v>41495361521</v>
-      </c>
-      <c r="D281" s="11">
-        <v>395558587000</v>
+        <v>302</v>
+      </c>
+      <c r="C281" s="12">
+        <v>20111947865</v>
+      </c>
+      <c r="D281" s="13">
+        <v>315409485000</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5922,13 +5937,13 @@
         <v>38</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="C282" s="12">
-        <v>23219416666</v>
-      </c>
-      <c r="D282" s="13">
-        <v>288250888000</v>
+        <v>20218185879</v>
+      </c>
+      <c r="D282" s="11">
+        <v>355916109000</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5936,13 +5951,13 @@
         <v>40</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="C283" s="12">
-        <v>20111947865</v>
+        <v>25639202294</v>
       </c>
       <c r="D283" s="13">
-        <v>315409485000</v>
+        <v>254509410000</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5950,205 +5965,209 @@
         <v>42</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="C284" s="12">
-        <v>20218185879</v>
-      </c>
-      <c r="D284" s="11">
-        <v>355916109000</v>
+        <v>305</v>
+      </c>
+      <c r="C284" s="10">
+        <v>16058421026</v>
+      </c>
+      <c r="D284" s="13">
+        <v>267064711000</v>
       </c>
     </row>
     <row r="285" spans="1:4">
-      <c r="A285" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B285" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="C285" s="12">
-        <v>25639202294</v>
-      </c>
-      <c r="D285" s="13">
-        <v>254509410000</v>
+      <c r="A285" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C285" s="17">
+        <v>24925575570</v>
+      </c>
+      <c r="D285" s="7">
+        <v>652284261000</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="8" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C286" s="10">
-        <v>16058421026</v>
-      </c>
-      <c r="D286" s="13">
-        <v>267064711000</v>
+        <v>22222843663</v>
+      </c>
+      <c r="D286" s="11">
+        <v>341152435000</v>
       </c>
     </row>
     <row r="287" spans="1:4">
-      <c r="A287" s="34"/>
-      <c r="B287" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="C287" s="17">
-        <v>24925575570</v>
-      </c>
-      <c r="D287" s="7">
-        <v>652284261000</v>
+      <c r="A287" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B287" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C287" s="10">
+        <v>20655291933</v>
+      </c>
+      <c r="D287" s="13">
+        <v>517229988000</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="C288" s="10">
-        <v>22222843663</v>
-      </c>
-      <c r="D288" s="11">
-        <v>341152435000</v>
+        <v>23802844618</v>
+      </c>
+      <c r="D288" s="13">
+        <v>390979131000</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="C289" s="10">
-        <v>20655291933</v>
+        <v>25526358738</v>
       </c>
       <c r="D289" s="13">
-        <v>517229988000</v>
+        <v>367000042000</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="8" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B290" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="C290" s="10">
-        <v>23802844618</v>
+        <v>311</v>
+      </c>
+      <c r="C290" s="12">
+        <v>21050422247</v>
       </c>
       <c r="D290" s="13">
-        <v>390979131000</v>
+        <v>288205298000</v>
       </c>
     </row>
     <row r="291" spans="1:4">
-      <c r="A291" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B291" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="C291" s="10">
-        <v>25526358738</v>
-      </c>
-      <c r="D291" s="13">
-        <v>367000042000</v>
+      <c r="A291" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C291" s="17">
+        <v>88963096061</v>
+      </c>
+      <c r="D291" s="7">
+        <v>994658685000</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="8" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="C292" s="12">
-        <v>21050422247</v>
+        <v>313</v>
+      </c>
+      <c r="C292" s="10">
+        <v>46386897021</v>
       </c>
       <c r="D292" s="13">
-        <v>288205298000</v>
+        <v>711134461000</v>
       </c>
     </row>
     <row r="293" spans="1:4">
-      <c r="A293" s="34"/>
-      <c r="B293" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C293" s="17">
-        <v>88963096061</v>
-      </c>
-      <c r="D293" s="7">
-        <v>994658685000</v>
+      <c r="A293" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B293" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="C293" s="10">
+        <v>29742631052</v>
+      </c>
+      <c r="D293" s="11">
+        <v>446340738000</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="C294" s="10">
-        <v>46386897021</v>
-      </c>
-      <c r="D294" s="13">
-        <v>711134461000</v>
+        <v>27821599903</v>
+      </c>
+      <c r="D294" s="11">
+        <v>405310339000</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B295" s="9" t="s">
-        <v>338</v>
+        <v>477</v>
       </c>
       <c r="C295" s="10">
-        <v>29742631052</v>
+        <v>27887243614</v>
       </c>
       <c r="D295" s="11">
-        <v>446340738000</v>
+        <v>487396299000</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="8" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="C296" s="10">
-        <v>27821599903</v>
-      </c>
-      <c r="D296" s="11">
-        <v>405310339000</v>
+        <v>35664031851</v>
+      </c>
+      <c r="D296" s="13">
+        <v>523660657000</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="C297" s="10">
-        <v>27887243614</v>
-      </c>
-      <c r="D297" s="11">
-        <v>487396299000</v>
+        <v>66854576455</v>
+      </c>
+      <c r="D297" s="13">
+        <v>615422867000</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="C298" s="10">
-        <v>35664031851</v>
+        <v>36112401951</v>
       </c>
       <c r="D298" s="13">
-        <v>523660657000</v>
+        <v>583806859000</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6156,13 +6175,13 @@
         <v>36</v>
       </c>
       <c r="B299" s="9" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="C299" s="10">
-        <v>66854576455</v>
+        <v>33786492079</v>
       </c>
       <c r="D299" s="13">
-        <v>615422867000</v>
+        <v>588502963000</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6170,13 +6189,13 @@
         <v>38</v>
       </c>
       <c r="B300" s="9" t="s">
-        <v>343</v>
+        <v>478</v>
       </c>
       <c r="C300" s="10">
-        <v>36112401951</v>
+        <v>32637276485</v>
       </c>
       <c r="D300" s="13">
-        <v>583806859000</v>
+        <v>426316322000</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6184,123 +6203,125 @@
         <v>40</v>
       </c>
       <c r="B301" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="C301" s="10">
-        <v>33786492079</v>
-      </c>
-      <c r="D301" s="13">
-        <v>588502963000</v>
+        <v>319</v>
+      </c>
+      <c r="C301" s="12">
+        <v>24851515918</v>
+      </c>
+      <c r="D301" s="11">
+        <v>503990769000</v>
       </c>
     </row>
     <row r="302" spans="1:4">
-      <c r="A302" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B302" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="C302" s="10">
-        <v>32637276485</v>
-      </c>
-      <c r="D302" s="13">
-        <v>426316322000</v>
+      <c r="A302" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C302" s="17">
+        <v>244136608899</v>
+      </c>
+      <c r="D302" s="7">
+        <v>1089771438000</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="8" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B303" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="C303" s="12">
-        <v>24851515918</v>
+        <v>321</v>
+      </c>
+      <c r="C303" s="10">
+        <v>29060026830</v>
       </c>
       <c r="D303" s="11">
-        <v>503990769000</v>
+        <v>379463356000</v>
       </c>
     </row>
     <row r="304" spans="1:4">
-      <c r="A304" s="34"/>
-      <c r="B304" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C304" s="17">
-        <v>244136608899</v>
-      </c>
-      <c r="D304" s="7">
-        <v>1089771438000</v>
+      <c r="A304" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B304" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C304" s="10">
+        <v>29200615707</v>
+      </c>
+      <c r="D304" s="11">
+        <v>417942379000</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B305" s="9" t="s">
-        <v>348</v>
+        <v>479</v>
       </c>
       <c r="C305" s="10">
-        <v>29060026830</v>
-      </c>
-      <c r="D305" s="11">
-        <v>379463356000</v>
+        <v>58556735837</v>
+      </c>
+      <c r="D305" s="13">
+        <v>867813851000</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B306" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="C306" s="10">
-        <v>29200615707</v>
+        <v>323</v>
+      </c>
+      <c r="C306" s="12">
+        <v>31193906498</v>
       </c>
       <c r="D306" s="11">
-        <v>417942379000</v>
+        <v>591388184000</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="8" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B307" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="C307" s="10">
-        <v>58556735837</v>
+        <v>324</v>
+      </c>
+      <c r="C307" s="12">
+        <v>34006143846</v>
       </c>
       <c r="D307" s="13">
-        <v>867813851000</v>
+        <v>436542180000</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B308" s="9" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="C308" s="12">
-        <v>31193906498</v>
-      </c>
-      <c r="D308" s="11">
-        <v>591388184000</v>
+        <v>33344259869</v>
+      </c>
+      <c r="D308" s="13">
+        <v>670579761000</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="C309" s="12">
-        <v>34006143846</v>
-      </c>
-      <c r="D309" s="13">
-        <v>436542180000</v>
+        <v>326</v>
+      </c>
+      <c r="C309" s="10">
+        <v>30110130586</v>
+      </c>
+      <c r="D309" s="11">
+        <v>494087427000</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6308,13 +6329,13 @@
         <v>36</v>
       </c>
       <c r="B310" s="9" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="C310" s="12">
-        <v>33344259869</v>
+        <v>26966196962</v>
       </c>
       <c r="D310" s="13">
-        <v>670579761000</v>
+        <v>542118008000</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6322,13 +6343,13 @@
         <v>38</v>
       </c>
       <c r="B311" s="9" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="C311" s="10">
-        <v>30110130586</v>
-      </c>
-      <c r="D311" s="11">
-        <v>494087427000</v>
+        <v>36695122453</v>
+      </c>
+      <c r="D311" s="13">
+        <v>512644776000</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6336,13 +6357,13 @@
         <v>40</v>
       </c>
       <c r="B312" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="C312" s="12">
-        <v>26966196962</v>
+        <v>329</v>
+      </c>
+      <c r="C312" s="10">
+        <v>30197662854</v>
       </c>
       <c r="D312" s="13">
-        <v>542118008000</v>
+        <v>540383322000</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6350,13 +6371,13 @@
         <v>42</v>
       </c>
       <c r="B313" s="9" t="s">
-        <v>355</v>
+        <v>480</v>
       </c>
       <c r="C313" s="10">
-        <v>36695122453</v>
+        <v>33537127084</v>
       </c>
       <c r="D313" s="13">
-        <v>512644776000</v>
+        <v>566929217000</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6364,13 +6385,13 @@
         <v>44</v>
       </c>
       <c r="B314" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="C314" s="10">
-        <v>30197662854</v>
+        <v>330</v>
+      </c>
+      <c r="C314" s="12">
+        <v>30430613952</v>
       </c>
       <c r="D314" s="13">
-        <v>540383322000</v>
+        <v>574244531000</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6378,13 +6399,13 @@
         <v>46</v>
       </c>
       <c r="B315" s="9" t="s">
-        <v>357</v>
+        <v>481</v>
       </c>
       <c r="C315" s="10">
-        <v>33537127084</v>
-      </c>
-      <c r="D315" s="13">
-        <v>566929217000</v>
+        <v>27674872743</v>
+      </c>
+      <c r="D315" s="11">
+        <v>421256593000</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6392,13 +6413,13 @@
         <v>48</v>
       </c>
       <c r="B316" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="C316" s="12">
-        <v>30430613952</v>
+        <v>331</v>
+      </c>
+      <c r="C316" s="10">
+        <v>36817232618</v>
       </c>
       <c r="D316" s="13">
-        <v>574244531000</v>
+        <v>499699753000</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6406,13 +6427,13 @@
         <v>50</v>
       </c>
       <c r="B317" s="9" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="C317" s="10">
-        <v>27674872743</v>
-      </c>
-      <c r="D317" s="11">
-        <v>421256593000</v>
+        <v>29582936248</v>
+      </c>
+      <c r="D317" s="13">
+        <v>474528814000</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6420,13 +6441,13 @@
         <v>52</v>
       </c>
       <c r="B318" s="9" t="s">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="C318" s="10">
-        <v>36817232618</v>
-      </c>
-      <c r="D318" s="13">
-        <v>499699753000</v>
+        <v>31969880251</v>
+      </c>
+      <c r="D318" s="11">
+        <v>517805122000</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6434,13 +6455,13 @@
         <v>54</v>
       </c>
       <c r="B319" s="9" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="C319" s="10">
-        <v>29582936248</v>
+        <v>26932207281</v>
       </c>
       <c r="D319" s="13">
-        <v>474528814000</v>
+        <v>479073701000</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6448,13 +6469,13 @@
         <v>56</v>
       </c>
       <c r="B320" s="9" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="C320" s="10">
-        <v>31969880251</v>
-      </c>
-      <c r="D320" s="11">
-        <v>517805122000</v>
+        <v>24087705616</v>
+      </c>
+      <c r="D320" s="13">
+        <v>444741329000</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6462,233 +6483,237 @@
         <v>58</v>
       </c>
       <c r="B321" s="9" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="C321" s="10">
-        <v>26932207281</v>
+        <v>118484670966</v>
       </c>
       <c r="D321" s="13">
-        <v>479073701000</v>
+        <v>592275827000</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B322" s="9" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="C322" s="10">
-        <v>24087705616</v>
+        <v>63077017684</v>
       </c>
       <c r="D322" s="13">
-        <v>444741329000</v>
+        <v>410974651000</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B323" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="C323" s="10">
-        <v>118484670966</v>
-      </c>
-      <c r="D323" s="13">
-        <v>592275827000</v>
+        <v>338</v>
+      </c>
+      <c r="C323" s="12">
+        <v>21831136951</v>
+      </c>
+      <c r="D323" s="11">
+        <v>404597214000</v>
       </c>
     </row>
     <row r="324" spans="1:4">
-      <c r="A324" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B324" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="C324" s="10">
-        <v>63077017684</v>
-      </c>
-      <c r="D324" s="13">
-        <v>410974651000</v>
+      <c r="A324" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C324" s="6">
+        <v>37758937698</v>
+      </c>
+      <c r="D324" s="7">
+        <v>685497592000</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="8" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="B325" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="C325" s="12">
-        <v>21831136951</v>
-      </c>
-      <c r="D325" s="11">
-        <v>404597214000</v>
+        <v>340</v>
+      </c>
+      <c r="C325" s="10">
+        <v>30424771056</v>
+      </c>
+      <c r="D325" s="13">
+        <v>416986177000</v>
       </c>
     </row>
     <row r="326" spans="1:4">
-      <c r="A326" s="34"/>
-      <c r="B326" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C326" s="6">
-        <v>37758937698</v>
-      </c>
-      <c r="D326" s="7">
-        <v>685497592000</v>
+      <c r="A326" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B326" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C326" s="10">
+        <v>52787359223</v>
+      </c>
+      <c r="D326" s="11">
+        <v>587833771000</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B327" s="9" t="s">
-        <v>369</v>
+        <v>342</v>
       </c>
       <c r="C327" s="10">
-        <v>30424771056</v>
+        <v>28991093102</v>
       </c>
       <c r="D327" s="13">
-        <v>416986177000</v>
+        <v>555943291000</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B328" s="9" t="s">
-        <v>370</v>
+        <v>343</v>
       </c>
       <c r="C328" s="10">
-        <v>52787359223</v>
-      </c>
-      <c r="D328" s="11">
-        <v>587833771000</v>
+        <v>26231347035</v>
+      </c>
+      <c r="D328" s="13">
+        <v>410741106000</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="8" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B329" s="9" t="s">
-        <v>371</v>
+        <v>344</v>
       </c>
       <c r="C329" s="10">
-        <v>28991093102</v>
-      </c>
-      <c r="D329" s="13">
-        <v>555943291000</v>
+        <v>48519810360</v>
+      </c>
+      <c r="D329" s="11">
+        <v>338786109000</v>
       </c>
     </row>
     <row r="330" spans="1:4">
-      <c r="A330" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B330" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="C330" s="10">
-        <v>26231347035</v>
-      </c>
-      <c r="D330" s="13">
-        <v>410741106000</v>
+      <c r="A330" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C330" s="6">
+        <v>98572442715</v>
+      </c>
+      <c r="D330" s="22">
+        <v>981035741000</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="8" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B331" s="9" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="C331" s="10">
-        <v>48519810360</v>
-      </c>
-      <c r="D331" s="11">
-        <v>338786109000</v>
+        <v>37096449840</v>
+      </c>
+      <c r="D331" s="13">
+        <v>535326605000</v>
       </c>
     </row>
     <row r="332" spans="1:4">
-      <c r="A332" s="34"/>
-      <c r="B332" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="C332" s="6">
-        <v>98572442715</v>
-      </c>
-      <c r="D332" s="22">
-        <v>981035741000</v>
+      <c r="A332" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B332" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="C332" s="12">
+        <v>28828080597</v>
+      </c>
+      <c r="D332" s="13">
+        <v>613042674000</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B333" s="9" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="C333" s="10">
-        <v>37096449840</v>
+        <v>71003813354</v>
       </c>
       <c r="D333" s="13">
-        <v>535326605000</v>
+        <v>613742503000</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B334" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="C334" s="12">
-        <v>28828080597</v>
+        <v>349</v>
+      </c>
+      <c r="C334" s="10">
+        <v>30084310511</v>
       </c>
       <c r="D334" s="13">
-        <v>613042674000</v>
+        <v>635053318000</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="8" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="C335" s="10">
-        <v>71003813354</v>
-      </c>
-      <c r="D335" s="13">
-        <v>613742503000</v>
+        <v>350</v>
+      </c>
+      <c r="C335" s="12">
+        <v>43068890450</v>
+      </c>
+      <c r="D335" s="11">
+        <v>538654988000</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B336" s="9" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="C336" s="10">
-        <v>30084310511</v>
+        <v>41554320501</v>
       </c>
       <c r="D336" s="13">
-        <v>635053318000</v>
+        <v>382986680000</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B337" s="9" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="C337" s="12">
-        <v>43068890450</v>
-      </c>
-      <c r="D337" s="11">
-        <v>538654988000</v>
+        <v>30497108716</v>
+      </c>
+      <c r="D337" s="13">
+        <v>353873348000</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6696,13 +6721,13 @@
         <v>36</v>
       </c>
       <c r="B338" s="9" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="C338" s="10">
-        <v>41554320501</v>
+        <v>42407733984</v>
       </c>
       <c r="D338" s="13">
-        <v>382986680000</v>
+        <v>385721156000</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6710,13 +6735,13 @@
         <v>38</v>
       </c>
       <c r="B339" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="C339" s="12">
-        <v>30497108716</v>
+        <v>354</v>
+      </c>
+      <c r="C339" s="10">
+        <v>37272620618</v>
       </c>
       <c r="D339" s="13">
-        <v>353873348000</v>
+        <v>417340323000</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6724,123 +6749,125 @@
         <v>40</v>
       </c>
       <c r="B340" s="9" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="C340" s="10">
-        <v>42407733984</v>
+        <v>25770946253</v>
       </c>
       <c r="D340" s="13">
-        <v>385721156000</v>
+        <v>329371283000</v>
       </c>
     </row>
     <row r="341" spans="1:4">
-      <c r="A341" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B341" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="C341" s="10">
-        <v>37272620618</v>
-      </c>
-      <c r="D341" s="13">
-        <v>417340323000</v>
+      <c r="A341" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B341" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C341" s="17">
+        <v>138562880972</v>
+      </c>
+      <c r="D341" s="7">
+        <v>792365876000</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="8" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B342" s="9" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="C342" s="10">
-        <v>25770946253</v>
+        <v>65971341617</v>
       </c>
       <c r="D342" s="13">
-        <v>329371283000</v>
+        <v>372625383000</v>
       </c>
     </row>
     <row r="343" spans="1:4">
-      <c r="A343" s="34"/>
-      <c r="B343" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="C343" s="17">
-        <v>138562880972</v>
-      </c>
-      <c r="D343" s="7">
-        <v>792365876000</v>
+      <c r="A343" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B343" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="C343" s="10">
+        <v>26643665745</v>
+      </c>
+      <c r="D343" s="11">
+        <v>450812694000</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>386</v>
+        <v>359</v>
       </c>
       <c r="C344" s="10">
-        <v>65971341617</v>
+        <v>41435254463</v>
       </c>
       <c r="D344" s="13">
-        <v>372625383000</v>
+        <v>796419224000</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B345" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="C345" s="10">
-        <v>26643665745</v>
-      </c>
-      <c r="D345" s="11">
-        <v>450812694000</v>
+        <v>360</v>
+      </c>
+      <c r="C345" s="12">
+        <v>32106016150</v>
+      </c>
+      <c r="D345" s="13">
+        <v>609293266000</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="8" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B346" s="9" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="C346" s="10">
-        <v>41435254463</v>
-      </c>
-      <c r="D346" s="13">
-        <v>796419224000</v>
+        <v>25714239008</v>
+      </c>
+      <c r="D346" s="11">
+        <v>450919726000</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B347" s="9" t="s">
-        <v>389</v>
+        <v>362</v>
       </c>
       <c r="C347" s="12">
-        <v>32106016150</v>
+        <v>30031768180</v>
       </c>
       <c r="D347" s="13">
-        <v>609293266000</v>
+        <v>563981785000</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B348" s="9" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="C348" s="10">
-        <v>25714239008</v>
+        <v>22050456686</v>
       </c>
       <c r="D348" s="11">
-        <v>450919726000</v>
+        <v>444174019000</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6848,123 +6875,125 @@
         <v>36</v>
       </c>
       <c r="B349" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="C349" s="12">
-        <v>30031768180</v>
+        <v>364</v>
+      </c>
+      <c r="C349" s="10">
+        <v>28063675799</v>
       </c>
       <c r="D349" s="13">
-        <v>563981785000</v>
+        <v>663156595000</v>
       </c>
     </row>
     <row r="350" spans="1:4">
-      <c r="A350" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B350" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="C350" s="10">
-        <v>22050456686</v>
-      </c>
-      <c r="D350" s="11">
-        <v>444174019000</v>
+      <c r="A350" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B350" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C350" s="17">
+        <v>145070890301</v>
+      </c>
+      <c r="D350" s="22">
+        <v>859353026000</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="8" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B351" s="9" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="C351" s="10">
-        <v>28063675799</v>
-      </c>
-      <c r="D351" s="13">
-        <v>663156595000</v>
+        <v>37590074084</v>
+      </c>
+      <c r="D351" s="11">
+        <v>698561969000</v>
       </c>
     </row>
     <row r="352" spans="1:4">
-      <c r="A352" s="34"/>
-      <c r="B352" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="C352" s="17">
-        <v>145070890301</v>
-      </c>
-      <c r="D352" s="22">
-        <v>859353026000</v>
+      <c r="A352" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B352" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C352" s="10">
+        <v>31708595153</v>
+      </c>
+      <c r="D352" s="11">
+        <v>470825402000</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B353" s="9" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="C353" s="10">
-        <v>37590074084</v>
-      </c>
-      <c r="D353" s="11">
-        <v>698561969000</v>
+        <v>38661510608</v>
+      </c>
+      <c r="D353" s="13">
+        <v>612621760000</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B354" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="C354" s="10">
-        <v>31708595153</v>
-      </c>
-      <c r="D354" s="11">
-        <v>470825402000</v>
+        <v>369</v>
+      </c>
+      <c r="C354" s="12">
+        <v>54781858796</v>
+      </c>
+      <c r="D354" s="13">
+        <v>793651563000</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="8" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B355" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="C355" s="10">
-        <v>38661510608</v>
+        <v>370</v>
+      </c>
+      <c r="C355" s="12">
+        <v>85775931943</v>
       </c>
       <c r="D355" s="13">
-        <v>612621760000</v>
+        <v>932462555000</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B356" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="C356" s="12">
-        <v>54781858796</v>
-      </c>
-      <c r="D356" s="13">
-        <v>793651563000</v>
+        <v>371</v>
+      </c>
+      <c r="C356" s="10">
+        <v>41905240602</v>
+      </c>
+      <c r="D356" s="11">
+        <v>647640513000</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B357" s="9" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="C357" s="12">
-        <v>85775931943</v>
+        <v>68241519100</v>
       </c>
       <c r="D357" s="13">
-        <v>932462555000</v>
+        <v>272959410000</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6972,123 +7001,125 @@
         <v>36</v>
       </c>
       <c r="B358" s="9" t="s">
-        <v>400</v>
+        <v>373</v>
       </c>
       <c r="C358" s="10">
-        <v>41905240602</v>
-      </c>
-      <c r="D358" s="11">
-        <v>647640513000</v>
+        <v>26987157480</v>
+      </c>
+      <c r="D358" s="13">
+        <v>314808074000</v>
       </c>
     </row>
     <row r="359" spans="1:4">
-      <c r="A359" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B359" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="C359" s="12">
-        <v>68241519100</v>
-      </c>
-      <c r="D359" s="13">
-        <v>272959410000</v>
+      <c r="A359" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B359" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C359" s="17">
+        <v>79383040098</v>
+      </c>
+      <c r="D359" s="22">
+        <v>1003991703000</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="8" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B360" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="C360" s="10">
-        <v>26987157480</v>
+        <v>375</v>
+      </c>
+      <c r="C360" s="12">
+        <v>22049534033</v>
       </c>
       <c r="D360" s="13">
-        <v>314808074000</v>
+        <v>461359979000</v>
       </c>
     </row>
     <row r="361" spans="1:4">
-      <c r="A361" s="34"/>
-      <c r="B361" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="C361" s="17">
-        <v>79383040098</v>
-      </c>
-      <c r="D361" s="22">
-        <v>1003991703000</v>
+      <c r="A361" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B361" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C361" s="12">
+        <v>25084844483</v>
+      </c>
+      <c r="D361" s="11">
+        <v>578912159000</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B362" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="C362" s="12">
-        <v>22049534033</v>
-      </c>
-      <c r="D362" s="13">
-        <v>461359979000</v>
+        <v>377</v>
+      </c>
+      <c r="C362" s="10">
+        <v>23430579187</v>
+      </c>
+      <c r="D362" s="11">
+        <v>506181070000</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B363" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="C363" s="12">
-        <v>25084844483</v>
-      </c>
-      <c r="D363" s="11">
-        <v>578912159000</v>
+        <v>378</v>
+      </c>
+      <c r="C363" s="10">
+        <v>24972843112</v>
+      </c>
+      <c r="D363" s="13">
+        <v>477818636000</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="8" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B364" s="9" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="C364" s="10">
-        <v>23430579187</v>
-      </c>
-      <c r="D364" s="11">
-        <v>506181070000</v>
+        <v>22798227480</v>
+      </c>
+      <c r="D364" s="13">
+        <v>534827407000</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B365" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="C365" s="10">
-        <v>24972843112</v>
+        <v>380</v>
+      </c>
+      <c r="C365" s="12">
+        <v>21233666077</v>
       </c>
       <c r="D365" s="13">
-        <v>477818636000</v>
+        <v>352353778000</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B366" s="9" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="C366" s="10">
-        <v>22798227480</v>
+        <v>20971338260</v>
       </c>
       <c r="D366" s="13">
-        <v>534827407000</v>
+        <v>452287758000</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7096,13 +7127,13 @@
         <v>36</v>
       </c>
       <c r="B367" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="C367" s="12">
-        <v>21233666077</v>
+        <v>382</v>
+      </c>
+      <c r="C367" s="10">
+        <v>17986911039</v>
       </c>
       <c r="D367" s="13">
-        <v>352353778000</v>
+        <v>350219646000</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7110,13 +7141,13 @@
         <v>38</v>
       </c>
       <c r="B368" s="9" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="C368" s="10">
-        <v>20971338260</v>
+        <v>22674390554</v>
       </c>
       <c r="D368" s="13">
-        <v>452287758000</v>
+        <v>498499639000</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7124,13 +7155,13 @@
         <v>40</v>
       </c>
       <c r="B369" s="9" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="C369" s="10">
-        <v>17986911039</v>
+        <v>18417146947</v>
       </c>
       <c r="D369" s="13">
-        <v>350219646000</v>
+        <v>307533200000</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7138,13 +7169,13 @@
         <v>42</v>
       </c>
       <c r="B370" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="C370" s="10">
-        <v>22674390554</v>
+        <v>385</v>
+      </c>
+      <c r="C370" s="12">
+        <v>27934420427</v>
       </c>
       <c r="D370" s="13">
-        <v>498499639000</v>
+        <v>515736111000</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7152,13 +7183,13 @@
         <v>44</v>
       </c>
       <c r="B371" s="9" t="s">
-        <v>413</v>
+        <v>386</v>
       </c>
       <c r="C371" s="10">
-        <v>18417146947</v>
+        <v>26799053792</v>
       </c>
       <c r="D371" s="13">
-        <v>307533200000</v>
+        <v>606976388000</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7166,13 +7197,13 @@
         <v>46</v>
       </c>
       <c r="B372" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="C372" s="12">
-        <v>27934420427</v>
+        <v>387</v>
+      </c>
+      <c r="C372" s="10">
+        <v>24919686923</v>
       </c>
       <c r="D372" s="13">
-        <v>515736111000</v>
+        <v>459487080000</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7180,13 +7211,13 @@
         <v>48</v>
       </c>
       <c r="B373" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="C373" s="10">
-        <v>26799053792</v>
+        <v>388</v>
+      </c>
+      <c r="C373" s="12">
+        <v>21601239248</v>
       </c>
       <c r="D373" s="13">
-        <v>606976388000</v>
+        <v>345248896000</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7194,13 +7225,13 @@
         <v>50</v>
       </c>
       <c r="B374" s="9" t="s">
-        <v>416</v>
+        <v>389</v>
       </c>
       <c r="C374" s="10">
-        <v>24919686923</v>
+        <v>21783940454</v>
       </c>
       <c r="D374" s="13">
-        <v>459487080000</v>
+        <v>382403558000</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7208,13 +7239,13 @@
         <v>52</v>
       </c>
       <c r="B375" s="9" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
       <c r="C375" s="12">
-        <v>21601239248</v>
+        <v>20207354986</v>
       </c>
       <c r="D375" s="13">
-        <v>345248896000</v>
+        <v>334481490000</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7222,13 +7253,13 @@
         <v>54</v>
       </c>
       <c r="B376" s="9" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
       <c r="C376" s="10">
-        <v>21783940454</v>
+        <v>22207619949</v>
       </c>
       <c r="D376" s="13">
-        <v>382403558000</v>
+        <v>363108797000</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7236,13 +7267,13 @@
         <v>56</v>
       </c>
       <c r="B377" s="9" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
       <c r="C377" s="12">
-        <v>20207354986</v>
-      </c>
-      <c r="D377" s="13">
-        <v>334481490000</v>
+        <v>19976882246</v>
+      </c>
+      <c r="D377" s="11">
+        <v>253664988000</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7250,137 +7281,139 @@
         <v>58</v>
       </c>
       <c r="B378" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="C378" s="10">
-        <v>22207619949</v>
-      </c>
-      <c r="D378" s="13">
-        <v>363108797000</v>
+        <v>393</v>
+      </c>
+      <c r="C378" s="12">
+        <v>19203252850</v>
+      </c>
+      <c r="D378" s="11">
+        <v>382067746000</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B379" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="C379" s="12">
-        <v>19976882246</v>
-      </c>
-      <c r="D379" s="11">
-        <v>253664988000</v>
+        <v>394</v>
+      </c>
+      <c r="C379" s="10">
+        <v>14920413771</v>
+      </c>
+      <c r="D379" s="13">
+        <v>270624355000</v>
       </c>
     </row>
     <row r="380" spans="1:4">
-      <c r="A380" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B380" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="C380" s="12">
-        <v>19203252850</v>
-      </c>
-      <c r="D380" s="11">
-        <v>382067746000</v>
+      <c r="A380" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B380" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C380" s="17">
+        <v>76667295282</v>
+      </c>
+      <c r="D380" s="7">
+        <v>897657192000</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="8" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B381" s="9" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
       <c r="C381" s="10">
-        <v>14920413771</v>
-      </c>
-      <c r="D381" s="13">
-        <v>270624355000</v>
+        <v>30174090038</v>
+      </c>
+      <c r="D381" s="11">
+        <v>412152331000</v>
       </c>
     </row>
     <row r="382" spans="1:4">
-      <c r="A382" s="34"/>
-      <c r="B382" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="C382" s="17">
-        <v>76667295282</v>
-      </c>
-      <c r="D382" s="7">
-        <v>897657192000</v>
+      <c r="A382" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B382" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="C382" s="10">
+        <v>41694502999</v>
+      </c>
+      <c r="D382" s="13">
+        <v>766730637000</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B383" s="9" t="s">
-        <v>425</v>
+        <v>398</v>
       </c>
       <c r="C383" s="10">
-        <v>30174090038</v>
-      </c>
-      <c r="D383" s="11">
-        <v>412152331000</v>
+        <v>29153578193</v>
+      </c>
+      <c r="D383" s="13">
+        <v>376516763000</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B384" s="9" t="s">
-        <v>426</v>
+        <v>399</v>
       </c>
       <c r="C384" s="10">
-        <v>41694502999</v>
+        <v>27215969833</v>
       </c>
       <c r="D384" s="13">
-        <v>766730637000</v>
+        <v>356075091000</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="8" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B385" s="9" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
       <c r="C385" s="10">
-        <v>29153578193</v>
+        <v>26523825318</v>
       </c>
       <c r="D385" s="13">
-        <v>376516763000</v>
+        <v>441210135000</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B386" s="9" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="C386" s="10">
-        <v>27215969833</v>
+        <v>77089555329</v>
       </c>
       <c r="D386" s="13">
-        <v>356075091000</v>
+        <v>366782861000</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B387" s="9" t="s">
-        <v>429</v>
+        <v>402</v>
       </c>
       <c r="C387" s="10">
-        <v>26523825318</v>
+        <v>28663985761</v>
       </c>
       <c r="D387" s="13">
-        <v>441210135000</v>
+        <v>375944887000</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7388,13 +7421,13 @@
         <v>36</v>
       </c>
       <c r="B388" s="9" t="s">
-        <v>430</v>
+        <v>403</v>
       </c>
       <c r="C388" s="10">
-        <v>77089555329</v>
+        <v>26757706740</v>
       </c>
       <c r="D388" s="13">
-        <v>366782861000</v>
+        <v>402856361000</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7402,233 +7435,237 @@
         <v>38</v>
       </c>
       <c r="B389" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="C389" s="10">
-        <v>28663985761</v>
+        <v>404</v>
+      </c>
+      <c r="C389" s="12">
+        <v>25894718478</v>
       </c>
       <c r="D389" s="13">
-        <v>375944887000</v>
+        <v>294019779000</v>
       </c>
     </row>
     <row r="390" spans="1:4">
-      <c r="A390" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B390" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="C390" s="10">
-        <v>26757706740</v>
-      </c>
-      <c r="D390" s="13">
-        <v>402856361000</v>
+      <c r="A390" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B390" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C390" s="17">
+        <v>98820160923</v>
+      </c>
+      <c r="D390" s="7">
+        <v>772591162000</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="8" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B391" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="C391" s="12">
-        <v>25894718478</v>
+        <v>406</v>
+      </c>
+      <c r="C391" s="10">
+        <v>47898841133</v>
       </c>
       <c r="D391" s="13">
-        <v>294019779000</v>
+        <v>353060178000</v>
       </c>
     </row>
     <row r="392" spans="1:4">
-      <c r="A392" s="34"/>
-      <c r="B392" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="C392" s="17">
-        <v>98820160923</v>
-      </c>
-      <c r="D392" s="7">
-        <v>772591162000</v>
+      <c r="A392" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B392" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="C392" s="12">
+        <v>37385763385</v>
+      </c>
+      <c r="D392" s="13">
+        <v>364686843000</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B393" s="9" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="C393" s="10">
-        <v>47898841133</v>
-      </c>
-      <c r="D393" s="13">
-        <v>353060178000</v>
+        <v>87585162822</v>
+      </c>
+      <c r="D393" s="11">
+        <v>337707086000</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B394" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="C394" s="12">
-        <v>37385763385</v>
-      </c>
-      <c r="D394" s="13">
-        <v>364686843000</v>
+        <v>409</v>
+      </c>
+      <c r="C394" s="10">
+        <v>39861336364</v>
+      </c>
+      <c r="D394" s="11">
+        <v>408687131000</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="8" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B395" s="9" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="C395" s="10">
-        <v>87585162822</v>
-      </c>
-      <c r="D395" s="11">
-        <v>337707086000</v>
+        <v>63263114968</v>
+      </c>
+      <c r="D395" s="13">
+        <v>479627293000</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B396" s="9" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="C396" s="10">
-        <v>39861336364</v>
-      </c>
-      <c r="D396" s="11">
-        <v>408687131000</v>
+        <v>48769368520</v>
+      </c>
+      <c r="D396" s="13">
+        <v>366797961000</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B397" s="9" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
       <c r="C397" s="10">
-        <v>63263114968</v>
-      </c>
-      <c r="D397" s="13">
-        <v>479627293000</v>
+        <v>29121343557</v>
+      </c>
+      <c r="D397" s="11">
+        <v>312486619000</v>
       </c>
     </row>
     <row r="398" spans="1:4">
-      <c r="A398" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B398" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="C398" s="10">
-        <v>48769368520</v>
-      </c>
-      <c r="D398" s="13">
-        <v>366797961000</v>
+      <c r="A398" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B398" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C398" s="17">
+        <v>463866601466</v>
+      </c>
+      <c r="D398" s="7">
+        <v>1889267850000</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="8" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B399" s="9" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="C399" s="10">
-        <v>29121343557</v>
-      </c>
-      <c r="D399" s="11">
-        <v>312486619000</v>
+        <v>39604350888</v>
+      </c>
+      <c r="D399" s="13">
+        <v>464681810000</v>
       </c>
     </row>
     <row r="400" spans="1:4">
-      <c r="A400" s="34"/>
-      <c r="B400" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="C400" s="17">
-        <v>463866601466</v>
-      </c>
-      <c r="D400" s="7">
-        <v>1889267850000</v>
+      <c r="A400" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B400" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="C400" s="10">
+        <v>52704106501</v>
+      </c>
+      <c r="D400" s="13">
+        <v>533111084000</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B401" s="9" t="s">
-        <v>443</v>
+        <v>416</v>
       </c>
       <c r="C401" s="10">
-        <v>39604350888</v>
+        <v>44341938922</v>
       </c>
       <c r="D401" s="13">
-        <v>464681810000</v>
+        <v>584835644000</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B402" s="9" t="s">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="C402" s="10">
-        <v>52704106501</v>
-      </c>
-      <c r="D402" s="13">
-        <v>533111084000</v>
+        <v>71495544457</v>
+      </c>
+      <c r="D402" s="11">
+        <v>1039460880000</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="8" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B403" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="C403" s="10">
-        <v>44341938922</v>
-      </c>
-      <c r="D403" s="13">
-        <v>584835644000</v>
+        <v>418</v>
+      </c>
+      <c r="C403" s="12">
+        <v>473105940197</v>
+      </c>
+      <c r="D403" s="11">
+        <v>506661741000</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B404" s="9" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="C404" s="10">
-        <v>71495544457</v>
+        <v>46777378498</v>
       </c>
       <c r="D404" s="11">
-        <v>1039460880000</v>
+        <v>545482656000</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B405" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="C405" s="12">
-        <v>473105940197</v>
-      </c>
-      <c r="D405" s="11">
-        <v>506661741000</v>
+        <v>420</v>
+      </c>
+      <c r="C405" s="10">
+        <v>40529893226</v>
+      </c>
+      <c r="D405" s="13">
+        <v>440647916000</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7636,13 +7673,13 @@
         <v>36</v>
       </c>
       <c r="B406" s="9" t="s">
-        <v>448</v>
+        <v>421</v>
       </c>
       <c r="C406" s="10">
-        <v>46777378498</v>
-      </c>
-      <c r="D406" s="11">
-        <v>545482656000</v>
+        <v>40510287337</v>
+      </c>
+      <c r="D406" s="13">
+        <v>533372754000</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7650,13 +7687,13 @@
         <v>38</v>
       </c>
       <c r="B407" s="9" t="s">
-        <v>449</v>
+        <v>422</v>
       </c>
       <c r="C407" s="10">
-        <v>40529893226</v>
-      </c>
-      <c r="D407" s="13">
-        <v>440647916000</v>
+        <v>47460187767</v>
+      </c>
+      <c r="D407" s="11">
+        <v>389582165000</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7664,13 +7701,13 @@
         <v>40</v>
       </c>
       <c r="B408" s="9" t="s">
-        <v>450</v>
+        <v>423</v>
       </c>
       <c r="C408" s="10">
-        <v>40510287337</v>
+        <v>52276338390</v>
       </c>
       <c r="D408" s="13">
-        <v>533372754000</v>
+        <v>566914711000</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7678,13 +7715,13 @@
         <v>42</v>
       </c>
       <c r="B409" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="C409" s="10">
-        <v>47460187767</v>
-      </c>
-      <c r="D409" s="11">
-        <v>389582165000</v>
+        <v>424</v>
+      </c>
+      <c r="C409" s="30">
+        <v>47404793964</v>
+      </c>
+      <c r="D409" s="31">
+        <v>432257068000</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7692,13 +7729,13 @@
         <v>44</v>
       </c>
       <c r="B410" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="C410" s="10">
-        <v>52276338390</v>
-      </c>
-      <c r="D410" s="13">
-        <v>566914711000</v>
+        <v>425</v>
+      </c>
+      <c r="C410" s="30">
+        <v>55793783170</v>
+      </c>
+      <c r="D410" s="31">
+        <v>556257151000</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7706,13 +7743,13 @@
         <v>46</v>
       </c>
       <c r="B411" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="C411" s="35">
-        <v>47404793964</v>
-      </c>
-      <c r="D411" s="36">
-        <v>432257068000</v>
+        <v>426</v>
+      </c>
+      <c r="C411" s="32">
+        <v>50868702292</v>
+      </c>
+      <c r="D411" s="33">
+        <v>695877613000</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7720,13 +7757,13 @@
         <v>48</v>
       </c>
       <c r="B412" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="C412" s="35">
-        <v>55793783170</v>
-      </c>
-      <c r="D412" s="36">
-        <v>556257151000</v>
+        <v>427</v>
+      </c>
+      <c r="C412" s="32">
+        <v>47011092173</v>
+      </c>
+      <c r="D412" s="33">
+        <v>507270132000</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7734,13 +7771,13 @@
         <v>50</v>
       </c>
       <c r="B413" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="C413" s="37">
-        <v>50868702292</v>
-      </c>
-      <c r="D413" s="38">
-        <v>695877613000</v>
+        <v>428</v>
+      </c>
+      <c r="C413" s="30">
+        <v>73611646812</v>
+      </c>
+      <c r="D413" s="31">
+        <v>660845140000</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7748,13 +7785,13 @@
         <v>52</v>
       </c>
       <c r="B414" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="C414" s="37">
-        <v>47011092173</v>
-      </c>
-      <c r="D414" s="38">
-        <v>507270132000</v>
+        <v>429</v>
+      </c>
+      <c r="C414" s="32">
+        <v>59326674881</v>
+      </c>
+      <c r="D414" s="31">
+        <v>639823176000</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7762,13 +7799,13 @@
         <v>54</v>
       </c>
       <c r="B415" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="C415" s="35">
-        <v>73611646812</v>
-      </c>
-      <c r="D415" s="36">
-        <v>660845140000</v>
+        <v>430</v>
+      </c>
+      <c r="C415" s="32">
+        <v>56155187911</v>
+      </c>
+      <c r="D415" s="31">
+        <v>744492145000</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7776,13 +7813,13 @@
         <v>56</v>
       </c>
       <c r="B416" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="C416" s="37">
-        <v>59326674881</v>
-      </c>
-      <c r="D416" s="36">
-        <v>639823176000</v>
+        <v>431</v>
+      </c>
+      <c r="C416" s="32">
+        <v>58943699356</v>
+      </c>
+      <c r="D416" s="31">
+        <v>416243438000</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7790,249 +7827,251 @@
         <v>58</v>
       </c>
       <c r="B417" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="C417" s="37">
-        <v>56155187911</v>
-      </c>
-      <c r="D417" s="36">
-        <v>744492145000</v>
+        <v>432</v>
+      </c>
+      <c r="C417" s="32">
+        <v>36441930579</v>
+      </c>
+      <c r="D417" s="31">
+        <v>372146683000</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B418" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="C418" s="37">
-        <v>58943699356</v>
-      </c>
-      <c r="D418" s="36">
-        <v>416243438000</v>
+        <v>433</v>
+      </c>
+      <c r="C418" s="30">
+        <v>120558720181</v>
+      </c>
+      <c r="D418" s="31">
+        <v>605620692000</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B419" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="C419" s="37">
-        <v>36441930579</v>
-      </c>
-      <c r="D419" s="36">
-        <v>372146683000</v>
+        <v>434</v>
+      </c>
+      <c r="C419" s="32">
+        <v>25950580996</v>
+      </c>
+      <c r="D419" s="33">
+        <v>491012731000</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B420" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="C420" s="35">
-        <v>120558720181</v>
-      </c>
-      <c r="D420" s="36">
-        <v>605620692000</v>
+        <v>435</v>
+      </c>
+      <c r="C420" s="32">
+        <v>27580762554</v>
+      </c>
+      <c r="D420" s="31">
+        <v>488582116000</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B421" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="C421" s="37">
-        <v>25950580996</v>
-      </c>
-      <c r="D421" s="38">
-        <v>491012731000</v>
+        <v>436</v>
+      </c>
+      <c r="C421" s="32">
+        <v>28980295096</v>
+      </c>
+      <c r="D421" s="31">
+        <v>517505342000</v>
       </c>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B422" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="C422" s="37">
-        <v>27580762554</v>
-      </c>
-      <c r="D422" s="36">
-        <v>488582116000</v>
+        <v>437</v>
+      </c>
+      <c r="C422" s="32">
+        <v>27088210040</v>
+      </c>
+      <c r="D422" s="31">
+        <v>439888368000</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="8" t="s">
-        <v>70</v>
+        <v>207</v>
       </c>
       <c r="B423" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="C423" s="37">
-        <v>28980295096</v>
-      </c>
-      <c r="D423" s="36">
-        <v>517505342000</v>
+        <v>438</v>
+      </c>
+      <c r="C423" s="32">
+        <v>35165125888</v>
+      </c>
+      <c r="D423" s="31">
+        <v>388183045000</v>
       </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="8" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="B424" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="C424" s="37">
-        <v>27088210040</v>
-      </c>
-      <c r="D424" s="36">
-        <v>439888368000</v>
+        <v>439</v>
+      </c>
+      <c r="C424" s="32">
+        <v>33666931978</v>
+      </c>
+      <c r="D424" s="31">
+        <v>624649053000</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="8" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B425" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="C425" s="37">
-        <v>35165125888</v>
-      </c>
-      <c r="D425" s="36">
-        <v>388183045000</v>
+        <v>440</v>
+      </c>
+      <c r="C425" s="32">
+        <v>32066414897</v>
+      </c>
+      <c r="D425" s="31">
+        <v>557179679000</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="8" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B426" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="C426" s="37">
-        <v>33666931978</v>
-      </c>
-      <c r="D426" s="36">
-        <v>624649053000</v>
+        <v>441</v>
+      </c>
+      <c r="C426" s="32">
+        <v>28586140922</v>
+      </c>
+      <c r="D426" s="33">
+        <v>336371266000</v>
       </c>
     </row>
     <row r="427" spans="1:4">
-      <c r="A427" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B427" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="C427" s="37">
-        <v>32066414897</v>
-      </c>
-      <c r="D427" s="36">
-        <v>557179679000</v>
+      <c r="A427" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B427" s="27" t="s">
+        <v>442</v>
+      </c>
+      <c r="C427" s="28">
+        <v>682654957323</v>
+      </c>
+      <c r="D427" s="29">
+        <v>1064872637000</v>
       </c>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="8" t="s">
-        <v>229</v>
+        <v>26</v>
       </c>
       <c r="B428" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="C428" s="37">
-        <v>28586140922</v>
-      </c>
-      <c r="D428" s="38">
-        <v>336371266000</v>
+        <v>443</v>
+      </c>
+      <c r="C428" s="32">
+        <v>289888596241</v>
+      </c>
+      <c r="D428" s="31">
+        <v>465669519000</v>
       </c>
     </row>
     <row r="429" spans="1:4">
-      <c r="A429" s="39"/>
-      <c r="B429" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="C429" s="28">
-        <v>682654957323</v>
-      </c>
-      <c r="D429" s="29">
-        <v>1064872637000</v>
+      <c r="A429" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B429" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C429" s="32">
+        <v>99785090216</v>
+      </c>
+      <c r="D429" s="33">
+        <v>614096216000</v>
       </c>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B430" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="C430" s="37">
-        <v>289888596241</v>
-      </c>
-      <c r="D430" s="36">
-        <v>465669519000</v>
+        <v>482</v>
+      </c>
+      <c r="C430" s="30">
+        <v>78436035240</v>
+      </c>
+      <c r="D430" s="31">
+        <v>541068761000</v>
       </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B431" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="C431" s="37">
-        <v>99785090216</v>
-      </c>
-      <c r="D431" s="38">
-        <v>614096216000</v>
+        <v>445</v>
+      </c>
+      <c r="C431" s="32">
+        <v>72678380090</v>
+      </c>
+      <c r="D431" s="31">
+        <v>335483025000</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="8" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B432" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="C432" s="35">
-        <v>78436035240</v>
-      </c>
-      <c r="D432" s="36">
-        <v>541068761000</v>
+        <v>446</v>
+      </c>
+      <c r="C432" s="30">
+        <v>85042628552</v>
+      </c>
+      <c r="D432" s="31">
+        <v>486042052000</v>
       </c>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B433" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="C433" s="37">
-        <v>72678380090</v>
-      </c>
-      <c r="D433" s="36">
-        <v>335483025000</v>
+        <v>447</v>
+      </c>
+      <c r="C433" s="32">
+        <v>249854556382</v>
+      </c>
+      <c r="D433" s="31">
+        <v>550845412000</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B434" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="C434" s="35">
-        <v>85042628552</v>
-      </c>
-      <c r="D434" s="36">
-        <v>486042052000</v>
+        <v>448</v>
+      </c>
+      <c r="C434" s="30">
+        <v>50397497421</v>
+      </c>
+      <c r="D434" s="31">
+        <v>351726364000</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -8040,13 +8079,13 @@
         <v>36</v>
       </c>
       <c r="B435" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="C435" s="37">
-        <v>249854556382</v>
-      </c>
-      <c r="D435" s="36">
-        <v>550845412000</v>
+        <v>449</v>
+      </c>
+      <c r="C435" s="32">
+        <v>62293834024</v>
+      </c>
+      <c r="D435" s="31">
+        <v>499597980000</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -8054,13 +8093,13 @@
         <v>38</v>
       </c>
       <c r="B436" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="C436" s="35">
-        <v>50397497421</v>
-      </c>
-      <c r="D436" s="36">
-        <v>351726364000</v>
+        <v>450</v>
+      </c>
+      <c r="C436" s="32">
+        <v>40820917521</v>
+      </c>
+      <c r="D436" s="31">
+        <v>353978783000</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -8068,40 +8107,12 @@
         <v>40</v>
       </c>
       <c r="B437" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="C437" s="37">
-        <v>62293834024</v>
-      </c>
-      <c r="D437" s="36">
-        <v>499597980000</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4">
-      <c r="A438" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B438" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="C438" s="37">
-        <v>40820917521</v>
-      </c>
-      <c r="D438" s="36">
-        <v>353978783000</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4">
-      <c r="A439" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B439" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="C439" s="37">
+        <v>451</v>
+      </c>
+      <c r="C437" s="32">
         <v>34919204124</v>
       </c>
-      <c r="D439" s="38">
+      <c r="D437" s="33">
         <v>368794108000</v>
       </c>
     </row>
